--- a/src/com/data/Test Cases Fab4.xlsx
+++ b/src/com/data/Test Cases Fab4.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="6690" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="22290" windowHeight="10200" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="331">
   <si>
     <t>TCID</t>
   </si>
@@ -981,6 +982,33 @@
   </si>
   <si>
     <t>SgPayByCreditCard</t>
+  </si>
+  <si>
+    <t>Construction Fence</t>
+  </si>
+  <si>
+    <t>Standard Plan Examination or Review</t>
+  </si>
+  <si>
+    <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: FN1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Construction Fence work :: 1111 :: 1.00 :: 3333</t>
+  </si>
+  <si>
+    <t>Supported Scaffold</t>
+  </si>
+  <si>
+    <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: SF1</t>
+  </si>
+  <si>
+    <t>Supported Scaffold work :: 1111 :: 1.00 :: 3333</t>
+  </si>
+  <si>
+    <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: SG1</t>
   </si>
 </sst>
 </file>
@@ -2934,11 +2962,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN250"/>
+  <dimension ref="A1:CW250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H219" sqref="H219"/>
+      <selection pane="topRight" activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -19819,16 +19847,16 @@
         <v>207</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>237</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>177</v>
@@ -19850,7 +19878,7 @@
         <v>180</v>
       </c>
       <c r="N144" s="12" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="O144" s="12" t="s">
         <v>197</v>
@@ -19869,7 +19897,7 @@
         <v>209</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="V144" s="5" t="s">
         <v>181</v>
@@ -23843,16 +23871,16 @@
         <v>190</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>237</v>
       </c>
       <c r="E176" s="19" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>177</v>
@@ -23874,7 +23902,7 @@
         <v>180</v>
       </c>
       <c r="N176" s="12" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="O176" s="12"/>
       <c r="P176" s="12" t="s">
@@ -23893,7 +23921,7 @@
         <v>191</v>
       </c>
       <c r="U176" s="5" t="s">
-        <v>250</v>
+        <v>329</v>
       </c>
       <c r="V176" s="5" t="s">
         <v>181</v>
@@ -27871,7 +27899,7 @@
         <v>176</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>237</v>
@@ -27880,7 +27908,7 @@
         <v>175</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>177</v>
@@ -29047,10 +29075,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:92">
+    <row r="217" spans="1:92" ht="409.6">
       <c r="E217" s="31"/>
     </row>
-    <row r="218" spans="1:92" s="8" customFormat="1">
+    <row r="218" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A218" s="38" t="s">
         <v>311</v>
       </c>
@@ -29552,10 +29580,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:92">
+    <row r="221" spans="1:92" ht="409.6">
       <c r="E221" s="31"/>
     </row>
-    <row r="222" spans="1:92" s="8" customFormat="1">
+    <row r="222" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A222" s="38" t="s">
         <v>317</v>
       </c>
@@ -30057,10 +30085,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:92">
+    <row r="225" spans="1:92" ht="409.6">
       <c r="E225" s="31"/>
     </row>
-    <row r="226" spans="1:92" s="8" customFormat="1">
+    <row r="226" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A226" s="38" t="s">
         <v>321</v>
       </c>
@@ -30562,10 +30590,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:92">
+    <row r="229" spans="1:92" ht="409.6">
       <c r="E229" s="31"/>
     </row>
-    <row r="230" spans="1:92" s="8" customFormat="1">
+    <row r="230" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A230" s="38" t="s">
         <v>205</v>
       </c>
@@ -31065,10 +31093,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:92">
+    <row r="233" spans="1:92" ht="409.6">
       <c r="E233" s="31"/>
     </row>
-    <row r="234" spans="1:92" s="8" customFormat="1">
+    <row r="234" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A234" s="38" t="s">
         <v>263</v>
       </c>
@@ -31568,10 +31596,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:92">
+    <row r="237" spans="1:92" ht="409.6">
       <c r="E237" s="31"/>
     </row>
-    <row r="238" spans="1:92" s="8" customFormat="1">
+    <row r="238" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A238" s="38" t="s">
         <v>201</v>
       </c>
@@ -32071,10 +32099,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:92">
+    <row r="241" spans="1:92" ht="409.6">
       <c r="E241" s="31"/>
     </row>
-    <row r="242" spans="1:92" s="8" customFormat="1">
+    <row r="242" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A242" s="38" t="s">
         <v>220</v>
       </c>
@@ -32574,13 +32602,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:92">
+    <row r="245" spans="1:92" ht="409.6">
       <c r="E245" s="31"/>
     </row>
-    <row r="246" spans="1:92">
+    <row r="246" spans="1:92" ht="409.6">
       <c r="E246" s="31"/>
     </row>
-    <row r="247" spans="1:92" s="26" customFormat="1">
+    <row r="247" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A247" s="23"/>
       <c r="B247" s="24"/>
       <c r="C247" s="23"/>
@@ -32648,7 +32676,7 @@
       <c r="BO247" s="25"/>
       <c r="BP247" s="25"/>
     </row>
-    <row r="248" spans="1:92" s="26" customFormat="1">
+    <row r="248" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A248" s="23"/>
       <c r="B248" s="24"/>
       <c r="C248" s="23"/>
@@ -32716,7 +32744,7 @@
       <c r="BO248" s="25"/>
       <c r="BP248" s="25"/>
     </row>
-    <row r="249" spans="1:92" s="26" customFormat="1">
+    <row r="249" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A249" s="23"/>
       <c r="B249" s="24"/>
       <c r="C249" s="23"/>
@@ -32784,7 +32812,7 @@
       <c r="BO249" s="25"/>
       <c r="BP249" s="25"/>
     </row>
-    <row r="250" spans="1:92" s="26" customFormat="1">
+    <row r="250" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A250" s="23"/>
       <c r="B250" s="24"/>
       <c r="C250" s="23"/>

--- a/src/com/data/Test Cases Fab4.xlsx
+++ b/src/com/data/Test Cases Fab4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="22290" windowHeight="10200" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="21885" windowHeight="7890" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="336">
   <si>
     <t>TCID</t>
   </si>
@@ -1009,6 +1009,21 @@
   </si>
   <si>
     <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: SG1</t>
+  </si>
+  <si>
+    <t>Sign work :: 1111 :: 1.00 :: 3333</t>
+  </si>
+  <si>
+    <t>Sidewalk Shed</t>
+  </si>
+  <si>
+    <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: SH1</t>
+  </si>
+  <si>
+    <t>Sidewalk Shed work :: 1111 :: 1.00 :: 3333</t>
+  </si>
+  <si>
+    <t>Other :: Wood :: Gold :: 200 :: 123</t>
   </si>
 </sst>
 </file>
@@ -2964,9 +2979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F208" sqref="F208"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N241" sqref="N241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -27951,7 +27966,7 @@
         <v>185</v>
       </c>
       <c r="U208" s="5" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="V208" s="5" t="s">
         <v>252</v>
@@ -29075,10 +29090,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:92" ht="409.6">
+    <row r="217" spans="1:92">
       <c r="E217" s="31"/>
     </row>
-    <row r="218" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="218" spans="1:92" s="8" customFormat="1">
       <c r="A218" s="38" t="s">
         <v>311</v>
       </c>
@@ -29580,10 +29595,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:92" ht="409.6">
+    <row r="221" spans="1:92">
       <c r="E221" s="31"/>
     </row>
-    <row r="222" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="222" spans="1:92" s="8" customFormat="1">
       <c r="A222" s="38" t="s">
         <v>317</v>
       </c>
@@ -30085,10 +30100,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:92" ht="409.6">
+    <row r="225" spans="1:92">
       <c r="E225" s="31"/>
     </row>
-    <row r="226" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="226" spans="1:92" s="8" customFormat="1">
       <c r="A226" s="38" t="s">
         <v>321</v>
       </c>
@@ -30590,10 +30605,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:92" ht="409.6">
+    <row r="229" spans="1:92">
       <c r="E229" s="31"/>
     </row>
-    <row r="230" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="230" spans="1:92" s="8" customFormat="1">
       <c r="A230" s="38" t="s">
         <v>205</v>
       </c>
@@ -31093,10 +31108,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:92" ht="409.6">
+    <row r="233" spans="1:92">
       <c r="E233" s="31"/>
     </row>
-    <row r="234" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="234" spans="1:92" s="8" customFormat="1">
       <c r="A234" s="38" t="s">
         <v>263</v>
       </c>
@@ -31596,10 +31611,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:92" ht="409.6">
+    <row r="237" spans="1:92">
       <c r="E237" s="31"/>
     </row>
-    <row r="238" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="238" spans="1:92" s="8" customFormat="1">
       <c r="A238" s="38" t="s">
         <v>201</v>
       </c>
@@ -31935,16 +31950,16 @@
         <v>202</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>237</v>
       </c>
       <c r="E240" s="19" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>177</v>
@@ -31966,10 +31981,10 @@
         <v>180</v>
       </c>
       <c r="N240" s="12" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="O240" s="12" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="P240" s="12" t="s">
         <v>122</v>
@@ -31985,7 +32000,7 @@
         <v>203</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="V240" s="5" t="s">
         <v>251</v>
@@ -32099,10 +32114,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:92" ht="409.6">
+    <row r="241" spans="1:92">
       <c r="E241" s="31"/>
     </row>
-    <row r="242" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="242" spans="1:92" s="8" customFormat="1">
       <c r="A242" s="38" t="s">
         <v>220</v>
       </c>
@@ -32602,13 +32617,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:92" ht="409.6">
+    <row r="245" spans="1:92">
       <c r="E245" s="31"/>
     </row>
-    <row r="246" spans="1:92" ht="409.6">
+    <row r="246" spans="1:92">
       <c r="E246" s="31"/>
     </row>
-    <row r="247" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="247" spans="1:92" s="26" customFormat="1">
       <c r="A247" s="23"/>
       <c r="B247" s="24"/>
       <c r="C247" s="23"/>
@@ -32676,7 +32691,7 @@
       <c r="BO247" s="25"/>
       <c r="BP247" s="25"/>
     </row>
-    <row r="248" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="248" spans="1:92" s="26" customFormat="1">
       <c r="A248" s="23"/>
       <c r="B248" s="24"/>
       <c r="C248" s="23"/>
@@ -32744,7 +32759,7 @@
       <c r="BO248" s="25"/>
       <c r="BP248" s="25"/>
     </row>
-    <row r="249" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="249" spans="1:92" s="26" customFormat="1">
       <c r="A249" s="23"/>
       <c r="B249" s="24"/>
       <c r="C249" s="23"/>
@@ -32812,7 +32827,7 @@
       <c r="BO249" s="25"/>
       <c r="BP249" s="25"/>
     </row>
-    <row r="250" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="250" spans="1:92" s="26" customFormat="1">
       <c r="A250" s="23"/>
       <c r="B250" s="24"/>
       <c r="C250" s="23"/>

--- a/src/com/data/Test Cases Fab4.xlsx
+++ b/src/com/data/Test Cases Fab4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="21885" windowHeight="7890" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="21645" windowHeight="11100" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8361" uniqueCount="344">
   <si>
     <t>TCID</t>
   </si>
@@ -1024,13 +1024,37 @@
   </si>
   <si>
     <t>Other :: Wood :: Gold :: 200 :: 123</t>
+  </si>
+  <si>
+    <t>AJOETEST@GMAIL.COM :: Construction Fence :: 0 :: 0 :: 1 :: Sidewalk Shed :: Supported Scaffold</t>
+  </si>
+  <si>
+    <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: FAB</t>
+  </si>
+  <si>
+    <t>AJOETEST@GMAIL.COM :: Professional Engineer :: JA&amp; LLC :: APPLEROME16@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>AJOETEST@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Y :: AJOETEST@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Construction Fence :: 1111 :: 5.00 :: 5555 :: Sidewalk Shed :: 2222 :: 4.00 :: 8888 :: Supported Scaffold :: 3333 :: 3.00 :: 9999</t>
+  </si>
+  <si>
+    <t>24442 :: 2800 :: Other :: 100</t>
+  </si>
+  <si>
+    <t>1 :: AJOETEST@GMAIL.COM :: Professional Engineer :: 5546 :: Post-installed Anchors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1217,6 +1241,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1582,7 +1614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1711,8 +1743,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1821,8 +1854,17 @@
     <xf numFmtId="49" fontId="22" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="128" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="128" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="128" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="129">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1940,6 +1982,7 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2979,9 +3022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N241" sqref="N241"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V192" sqref="V192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -25429,7 +25472,7 @@
         <v>3</v>
       </c>
       <c r="O188" s="12" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="P188" s="12" t="s">
         <v>122</v>
@@ -25890,7 +25933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="192" spans="1:92" s="5" customFormat="1" ht="150">
       <c r="A192" s="27" t="s">
         <v>3</v>
       </c>
@@ -25900,14 +25943,14 @@
       <c r="C192" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E192" s="19" t="s">
-        <v>288</v>
+      <c r="D192" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="E192" s="40" t="s">
+        <v>336</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>177</v>
@@ -25919,7 +25962,7 @@
         <v>3</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>178</v>
@@ -25929,17 +25972,15 @@
         <v>180</v>
       </c>
       <c r="N192" s="12" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="P192" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q192" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q192" s="12"/>
       <c r="R192" s="12"/>
       <c r="S192" s="5" t="s">
         <v>3</v>
@@ -25948,10 +25989,10 @@
         <v>198</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="V192" s="5" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="W192" s="12" t="s">
         <v>228</v>
@@ -25959,13 +26000,13 @@
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
       <c r="Z192" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA192" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB192" s="12" t="s">
-        <v>3</v>
+        <v>340</v>
+      </c>
+      <c r="AA192" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB192" s="42" t="s">
+        <v>339</v>
       </c>
       <c r="AC192" s="12" t="s">
         <v>3</v>
@@ -30605,10 +30646,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:92">
+    <row r="229" spans="1:92" ht="409.6">
       <c r="E229" s="31"/>
     </row>
-    <row r="230" spans="1:92" s="8" customFormat="1">
+    <row r="230" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A230" s="38" t="s">
         <v>205</v>
       </c>
@@ -31108,10 +31149,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:92">
+    <row r="233" spans="1:92" ht="409.6">
       <c r="E233" s="31"/>
     </row>
-    <row r="234" spans="1:92" s="8" customFormat="1">
+    <row r="234" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A234" s="38" t="s">
         <v>263</v>
       </c>
@@ -31611,10 +31652,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:92">
+    <row r="237" spans="1:92" ht="409.6">
       <c r="E237" s="31"/>
     </row>
-    <row r="238" spans="1:92" s="8" customFormat="1">
+    <row r="238" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A238" s="38" t="s">
         <v>201</v>
       </c>
@@ -32114,10 +32155,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:92">
+    <row r="241" spans="1:92" ht="409.6">
       <c r="E241" s="31"/>
     </row>
-    <row r="242" spans="1:92" s="8" customFormat="1">
+    <row r="242" spans="1:92" s="8" customFormat="1" ht="409.6">
       <c r="A242" s="38" t="s">
         <v>220</v>
       </c>
@@ -32617,13 +32658,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:92">
+    <row r="245" spans="1:92" ht="409.6">
       <c r="E245" s="31"/>
     </row>
-    <row r="246" spans="1:92">
+    <row r="246" spans="1:92" ht="409.6">
       <c r="E246" s="31"/>
     </row>
-    <row r="247" spans="1:92" s="26" customFormat="1">
+    <row r="247" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A247" s="23"/>
       <c r="B247" s="24"/>
       <c r="C247" s="23"/>
@@ -32691,7 +32732,7 @@
       <c r="BO247" s="25"/>
       <c r="BP247" s="25"/>
     </row>
-    <row r="248" spans="1:92" s="26" customFormat="1">
+    <row r="248" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A248" s="23"/>
       <c r="B248" s="24"/>
       <c r="C248" s="23"/>
@@ -32759,7 +32800,7 @@
       <c r="BO248" s="25"/>
       <c r="BP248" s="25"/>
     </row>
-    <row r="249" spans="1:92" s="26" customFormat="1">
+    <row r="249" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A249" s="23"/>
       <c r="B249" s="24"/>
       <c r="C249" s="23"/>
@@ -32827,7 +32868,7 @@
       <c r="BO249" s="25"/>
       <c r="BP249" s="25"/>
     </row>
-    <row r="250" spans="1:92" s="26" customFormat="1">
+    <row r="250" spans="1:92" s="26" customFormat="1" ht="409.6">
       <c r="A250" s="23"/>
       <c r="B250" s="24"/>
       <c r="C250" s="23"/>
@@ -32896,7 +32937,13 @@
       <c r="BP250" s="25"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E192" r:id="rId1"/>
+    <hyperlink ref="D192" r:id="rId2" display="AJOETEST@GMAIL.COM :: Professional Engineer :: JA&amp; LLC"/>
+    <hyperlink ref="AA192" r:id="rId3"/>
+    <hyperlink ref="AB192" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/com/data/Test Cases Fab4.xlsx
+++ b/src/com/data/Test Cases Fab4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8361" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8361" uniqueCount="346">
   <si>
     <t>TCID</t>
   </si>
@@ -729,9 +729,6 @@
     <t>user_info</t>
   </si>
   <si>
-    <t>AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2</t>
-  </si>
-  <si>
     <t>1 :: Gas Work Piping, Devices and Meters :: Piping, traps and Valves</t>
   </si>
   <si>
@@ -1048,6 +1045,15 @@
   </si>
   <si>
     <t>1 :: AJOETEST@GMAIL.COM :: Professional Engineer :: 5546 :: Post-installed Anchors</t>
+  </si>
+  <si>
+    <t>AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2 :: APPLEROME16@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2V :: APPLEROME16@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Y :: APPLEROME18@GMAIL.COM</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2645,7 @@
     </row>
     <row r="40" spans="1:3" s="2" customFormat="1">
       <c r="A40" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B40" s="32"/>
       <c r="C40" s="34" t="s">
@@ -2656,7 +2662,7 @@
     </row>
     <row r="42" spans="1:3" s="2" customFormat="1">
       <c r="A42" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B42" s="32"/>
       <c r="C42" s="34" t="s">
@@ -2808,7 +2814,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>3</v>
@@ -2816,7 +2822,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>3</v>
@@ -2824,7 +2830,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="34" t="s">
         <v>3</v>
@@ -2832,7 +2838,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>3</v>
@@ -2848,7 +2854,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C68" s="34" t="s">
         <v>3</v>
@@ -2856,7 +2862,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>3</v>
@@ -2910,7 +2916,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C77" s="34" t="s">
         <v>3</v>
@@ -2918,7 +2924,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78" s="34" t="s">
         <v>3</v>
@@ -2926,7 +2932,7 @@
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1">
       <c r="A79" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="34" t="s">
@@ -2935,7 +2941,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C80" s="34" t="s">
         <v>3</v>
@@ -2943,7 +2949,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>3</v>
@@ -2951,7 +2957,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C82" s="34" t="s">
         <v>3</v>
@@ -2959,7 +2965,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C84" s="34" t="s">
         <v>3</v>
@@ -2967,7 +2973,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C85" s="34" t="s">
         <v>3</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C86" s="34" t="s">
         <v>3</v>
@@ -2988,7 +2994,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C88" s="34" t="s">
         <v>3</v>
@@ -2996,7 +3002,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C89" s="34" t="s">
         <v>3</v>
@@ -3022,9 +3028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V192" sqref="V192"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z242" sqref="Z242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3337,7 +3343,7 @@
     </row>
     <row r="5" spans="1:92" s="8" customFormat="1">
       <c r="A5" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="7"/>
       <c r="E5" s="28"/>
@@ -3452,7 +3458,7 @@
         <v>27</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W6" s="16" t="s">
         <v>28</v>
@@ -3668,19 +3674,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>177</v>
@@ -3714,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>3</v>
@@ -3723,10 +3729,10 @@
         <v>185</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>228</v>
@@ -3842,7 +3848,7 @@
     </row>
     <row r="9" spans="1:92" s="8" customFormat="1">
       <c r="A9" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="7"/>
       <c r="E9" s="28"/>
@@ -3957,7 +3963,7 @@
         <v>27</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W10" s="16" t="s">
         <v>28</v>
@@ -4173,19 +4179,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>177</v>
@@ -4219,7 +4225,7 @@
         <v>3</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>3</v>
@@ -4228,10 +4234,10 @@
         <v>185</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W11" s="12" t="s">
         <v>228</v>
@@ -5296,13 +5302,13 @@
         <v>3</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>80</v>
@@ -5320,7 +5326,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>123</v>
@@ -5346,7 +5352,7 @@
         <v>3</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>235</v>
@@ -5796,13 +5802,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>80</v>
@@ -5820,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>123</v>
@@ -5846,7 +5852,7 @@
         <v>3</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>129</v>
@@ -6302,7 +6308,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>80</v>
@@ -6314,13 +6320,13 @@
         <v>4</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>123</v>
@@ -6346,13 +6352,13 @@
         <v>3</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>129</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W34" s="12" t="s">
         <v>228</v>
@@ -6802,7 +6808,7 @@
         <v>156</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>80</v>
@@ -6814,13 +6820,13 @@
         <v>4</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>123</v>
@@ -6846,13 +6852,13 @@
         <v>3</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>129</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W38" s="12" t="s">
         <v>228</v>
@@ -7296,13 +7302,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>80</v>
@@ -7320,7 +7326,7 @@
         <v>3</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>123</v>
@@ -7346,13 +7352,13 @@
         <v>3</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W42" s="12" t="s">
         <v>229</v>
@@ -7796,13 +7802,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>80</v>
@@ -7820,7 +7826,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>123</v>
@@ -7846,13 +7852,13 @@
         <v>3</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W46" s="12" t="s">
         <v>229</v>
@@ -8291,18 +8297,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="50" spans="1:92" s="5" customFormat="1" ht="75">
       <c r="A50" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>237</v>
+      <c r="D50" s="41" t="s">
+        <v>344</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>80</v>
@@ -8314,13 +8320,13 @@
         <v>4</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>123</v>
@@ -8346,13 +8352,13 @@
         <v>3</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>145</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W50" s="12" t="s">
         <v>228</v>
@@ -8796,13 +8802,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>80</v>
@@ -8814,13 +8820,13 @@
         <v>4</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>123</v>
@@ -8846,13 +8852,13 @@
         <v>3</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>145</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W54" s="12" t="s">
         <v>228</v>
@@ -9296,13 +9302,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>80</v>
@@ -9314,13 +9320,13 @@
         <v>4</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>123</v>
@@ -9346,13 +9352,13 @@
         <v>3</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W58" s="12" t="s">
         <v>228</v>
@@ -9796,13 +9802,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>80</v>
@@ -9814,13 +9820,13 @@
         <v>4</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>123</v>
@@ -9846,13 +9852,13 @@
         <v>3</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="W62" s="12" t="s">
         <v>228</v>
@@ -10302,7 +10308,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>80</v>
@@ -10314,13 +10320,13 @@
         <v>4</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>123</v>
@@ -10346,13 +10352,13 @@
         <v>3</v>
       </c>
       <c r="T66" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U66" s="5" t="s">
         <v>129</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W66" s="12" t="s">
         <v>228</v>
@@ -10802,7 +10808,7 @@
         <v>156</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>80</v>
@@ -10814,13 +10820,13 @@
         <v>4</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>123</v>
@@ -10846,13 +10852,13 @@
         <v>3</v>
       </c>
       <c r="T70" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>129</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="W70" s="12" t="s">
         <v>228</v>
@@ -10965,7 +10971,7 @@
     </row>
     <row r="72" spans="1:92" s="8" customFormat="1">
       <c r="A72" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B72" s="7"/>
       <c r="E72" s="7"/>
@@ -11296,13 +11302,13 @@
         <v>3</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>80</v>
@@ -11314,13 +11320,13 @@
         <v>4</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>123</v>
@@ -11346,13 +11352,13 @@
         <v>3</v>
       </c>
       <c r="T74" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U74" s="5" t="s">
         <v>145</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W74" s="12" t="s">
         <v>228</v>
@@ -11465,7 +11471,7 @@
     </row>
     <row r="76" spans="1:92" s="8" customFormat="1">
       <c r="A76" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B76" s="7"/>
       <c r="E76" s="7"/>
@@ -11796,13 +11802,13 @@
         <v>3</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>80</v>
@@ -11814,13 +11820,13 @@
         <v>4</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>123</v>
@@ -11846,13 +11852,13 @@
         <v>3</v>
       </c>
       <c r="T78" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U78" s="5" t="s">
         <v>145</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W78" s="12" t="s">
         <v>228</v>
@@ -11965,7 +11971,7 @@
     </row>
     <row r="80" spans="1:92" s="8" customFormat="1">
       <c r="A80" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B80" s="7"/>
       <c r="E80" s="7"/>
@@ -12296,13 +12302,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>80</v>
@@ -12314,13 +12320,13 @@
         <v>4</v>
       </c>
       <c r="H82" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>123</v>
@@ -12346,13 +12352,13 @@
         <v>3</v>
       </c>
       <c r="T82" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V82" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W82" s="12" t="s">
         <v>229</v>
@@ -12465,7 +12471,7 @@
     </row>
     <row r="84" spans="1:92" s="8" customFormat="1">
       <c r="A84" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B84" s="7"/>
       <c r="E84" s="7"/>
@@ -12796,13 +12802,13 @@
         <v>3</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>80</v>
@@ -12814,13 +12820,13 @@
         <v>4</v>
       </c>
       <c r="H86" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="K86" s="5" t="s">
         <v>123</v>
@@ -12846,13 +12852,13 @@
         <v>3</v>
       </c>
       <c r="T86" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U86" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W86" s="12" t="s">
         <v>229</v>
@@ -12965,7 +12971,7 @@
     </row>
     <row r="88" spans="1:92" s="8" customFormat="1">
       <c r="A88" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" s="7"/>
       <c r="E88" s="7"/>
@@ -13296,13 +13302,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>80</v>
@@ -13314,13 +13320,13 @@
         <v>4</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>123</v>
@@ -13346,13 +13352,13 @@
         <v>3</v>
       </c>
       <c r="T90" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V90" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W90" s="12" t="s">
         <v>228</v>
@@ -13465,7 +13471,7 @@
     </row>
     <row r="92" spans="1:92" s="8" customFormat="1">
       <c r="A92" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B92" s="7"/>
       <c r="E92" s="7"/>
@@ -13796,13 +13802,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C94" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>80</v>
@@ -13814,13 +13820,13 @@
         <v>4</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>123</v>
@@ -13846,13 +13852,13 @@
         <v>3</v>
       </c>
       <c r="T94" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>126</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W94" s="12" t="s">
         <v>228</v>
@@ -14302,7 +14308,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>152</v>
@@ -14314,13 +14320,13 @@
         <v>4</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>123</v>
@@ -14352,7 +14358,7 @@
         <v>153</v>
       </c>
       <c r="V98" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W98" s="12" t="s">
         <v>228</v>
@@ -14802,7 +14808,7 @@
         <v>156</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>152</v>
@@ -14814,13 +14820,13 @@
         <v>4</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>123</v>
@@ -14852,7 +14858,7 @@
         <v>153</v>
       </c>
       <c r="V102" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W102" s="12" t="s">
         <v>228</v>
@@ -15296,13 +15302,13 @@
         <v>3</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>81</v>
@@ -15314,13 +15320,13 @@
         <v>4</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>123</v>
@@ -15346,13 +15352,13 @@
         <v>3</v>
       </c>
       <c r="T106" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U106" s="5" t="s">
         <v>137</v>
       </c>
       <c r="V106" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W106" s="12" t="s">
         <v>229</v>
@@ -15790,13 +15796,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C110" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>81</v>
@@ -15808,13 +15814,13 @@
         <v>4</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>123</v>
@@ -15840,13 +15846,13 @@
         <v>3</v>
       </c>
       <c r="T110" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U110" s="5" t="s">
         <v>137</v>
       </c>
       <c r="V110" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W110" s="12" t="s">
         <v>229</v>
@@ -16290,7 +16296,7 @@
         <v>7</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>81</v>
@@ -16302,13 +16308,13 @@
         <v>4</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>123</v>
@@ -16340,7 +16346,7 @@
         <v>137</v>
       </c>
       <c r="V114" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W114" s="12" t="s">
         <v>228</v>
@@ -16787,7 +16793,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>81</v>
@@ -16799,13 +16805,13 @@
         <v>4</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>123</v>
@@ -16837,7 +16843,7 @@
         <v>137</v>
       </c>
       <c r="V118" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W118" s="12" t="s">
         <v>228</v>
@@ -17284,7 +17290,7 @@
         <v>156</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>81</v>
@@ -17296,13 +17302,13 @@
         <v>4</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>123</v>
@@ -17334,7 +17340,7 @@
         <v>137</v>
       </c>
       <c r="V122" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W122" s="12" t="s">
         <v>228</v>
@@ -17778,7 +17784,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>81</v>
@@ -17790,13 +17796,13 @@
         <v>4</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>123</v>
@@ -17828,7 +17834,7 @@
         <v>137</v>
       </c>
       <c r="V126" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W126" s="12" t="s">
         <v>228</v>
@@ -18272,7 +18278,7 @@
         <v>156</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>81</v>
@@ -18284,13 +18290,13 @@
         <v>4</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I130" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>123</v>
@@ -18322,7 +18328,7 @@
         <v>137</v>
       </c>
       <c r="V130" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W130" s="12" t="s">
         <v>228</v>
@@ -18902,13 +18908,13 @@
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>208</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>177</v>
@@ -18949,7 +18955,7 @@
         <v>209</v>
       </c>
       <c r="U136" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V136" s="5" t="s">
         <v>181</v>
@@ -19068,7 +19074,7 @@
     </row>
     <row r="138" spans="1:92" s="8" customFormat="1">
       <c r="A138" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B138" s="7"/>
       <c r="E138" s="28"/>
@@ -19399,19 +19405,19 @@
         <v>3</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C140" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>208</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>177</v>
@@ -19452,7 +19458,7 @@
         <v>209</v>
       </c>
       <c r="U140" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V140" s="5" t="s">
         <v>181</v>
@@ -19897,7 +19903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="144" spans="1:92" s="5" customFormat="1" ht="63.75">
       <c r="A144" s="27" t="s">
         <v>3</v>
       </c>
@@ -19905,16 +19911,16 @@
         <v>207</v>
       </c>
       <c r="C144" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>177</v>
@@ -19936,7 +19942,7 @@
         <v>180</v>
       </c>
       <c r="N144" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O144" s="12" t="s">
         <v>197</v>
@@ -19955,7 +19961,7 @@
         <v>209</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V144" s="5" t="s">
         <v>181</v>
@@ -19966,7 +19972,7 @@
       <c r="X144" s="12"/>
       <c r="Y144" s="12"/>
       <c r="Z144" s="12" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="AA144" s="12" t="s">
         <v>29</v>
@@ -20074,7 +20080,7 @@
     </row>
     <row r="146" spans="1:92" s="8" customFormat="1">
       <c r="A146" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B146" s="7"/>
       <c r="E146" s="28"/>
@@ -20405,19 +20411,19 @@
         <v>3</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C148" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E148" s="19" t="s">
         <v>208</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>177</v>
@@ -20458,7 +20464,7 @@
         <v>209</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V148" s="5" t="s">
         <v>181</v>
@@ -20914,13 +20920,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>177</v>
@@ -20961,7 +20967,7 @@
         <v>191</v>
       </c>
       <c r="U152" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V152" s="5" t="s">
         <v>181</v>
@@ -21417,13 +21423,13 @@
         <v>156</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>177</v>
@@ -21464,7 +21470,7 @@
         <v>191</v>
       </c>
       <c r="U156" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V156" s="5" t="s">
         <v>181</v>
@@ -21920,13 +21926,13 @@
         <v>7</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>177</v>
@@ -21967,7 +21973,7 @@
         <v>198</v>
       </c>
       <c r="U160" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V160" s="5" t="s">
         <v>181</v>
@@ -22423,13 +22429,13 @@
         <v>156</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E164" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>177</v>
@@ -22470,7 +22476,7 @@
         <v>198</v>
       </c>
       <c r="U164" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>181</v>
@@ -22926,13 +22932,13 @@
         <v>7</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E168" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>177</v>
@@ -22973,7 +22979,7 @@
         <v>198</v>
       </c>
       <c r="U168" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V168" s="5" t="s">
         <v>181</v>
@@ -23429,13 +23435,13 @@
         <v>156</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>177</v>
@@ -23476,7 +23482,7 @@
         <v>198</v>
       </c>
       <c r="U172" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V172" s="5" t="s">
         <v>181</v>
@@ -23921,7 +23927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="176" spans="1:92" s="5" customFormat="1" ht="63.75">
       <c r="A176" s="27" t="s">
         <v>3</v>
       </c>
@@ -23929,16 +23935,16 @@
         <v>190</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E176" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F176" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>177</v>
@@ -23960,7 +23966,7 @@
         <v>180</v>
       </c>
       <c r="N176" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O176" s="12"/>
       <c r="P176" s="12" t="s">
@@ -23979,7 +23985,7 @@
         <v>191</v>
       </c>
       <c r="U176" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V176" s="5" t="s">
         <v>181</v>
@@ -23990,7 +23996,7 @@
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
       <c r="Z176" s="12" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="AA176" s="12" t="s">
         <v>29</v>
@@ -24435,13 +24441,13 @@
         <v>156</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E180" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>177</v>
@@ -24482,7 +24488,7 @@
         <v>191</v>
       </c>
       <c r="U180" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V180" s="5" t="s">
         <v>181</v>
@@ -24601,7 +24607,7 @@
     </row>
     <row r="182" spans="1:92" s="8" customFormat="1">
       <c r="A182" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B182" s="7"/>
       <c r="E182" s="28"/>
@@ -24932,19 +24938,19 @@
         <v>3</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C184" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E184" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>177</v>
@@ -24985,7 +24991,7 @@
         <v>198</v>
       </c>
       <c r="U184" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V184" s="5" t="s">
         <v>181</v>
@@ -25104,7 +25110,7 @@
     </row>
     <row r="186" spans="1:92" s="8" customFormat="1">
       <c r="A186" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B186" s="7"/>
       <c r="E186" s="28"/>
@@ -25435,19 +25441,19 @@
         <v>3</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C188" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E188" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>177</v>
@@ -25472,7 +25478,7 @@
         <v>3</v>
       </c>
       <c r="O188" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P188" s="12" t="s">
         <v>122</v>
@@ -25488,7 +25494,7 @@
         <v>198</v>
       </c>
       <c r="U188" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V188" s="5" t="s">
         <v>181</v>
@@ -25607,7 +25613,7 @@
     </row>
     <row r="190" spans="1:92" s="8" customFormat="1">
       <c r="A190" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B190" s="7"/>
       <c r="E190" s="28"/>
@@ -25938,31 +25944,31 @@
         <v>3</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E192" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="F192" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>337</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>178</v>
@@ -25972,10 +25978,10 @@
         <v>180</v>
       </c>
       <c r="N192" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P192" s="12" t="s">
         <v>122</v>
@@ -25989,10 +25995,10 @@
         <v>198</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V192" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W192" s="12" t="s">
         <v>228</v>
@@ -26000,13 +26006,13 @@
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
       <c r="Z192" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AA192" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AB192" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AC192" s="12" t="s">
         <v>3</v>
@@ -26108,7 +26114,7 @@
     </row>
     <row r="194" spans="1:92" s="8" customFormat="1">
       <c r="A194" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B194" s="7"/>
       <c r="E194" s="28"/>
@@ -26439,25 +26445,25 @@
         <v>3</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C196" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E196" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I196" s="5" t="s">
         <v>3</v>
@@ -26492,7 +26498,7 @@
         <v>198</v>
       </c>
       <c r="U196" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V196" s="5" t="s">
         <v>181</v>
@@ -26948,13 +26954,13 @@
         <v>7</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E200" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>177</v>
@@ -26988,7 +26994,7 @@
         <v>3</v>
       </c>
       <c r="R200" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S200" s="5" t="s">
         <v>3</v>
@@ -26997,10 +27003,10 @@
         <v>185</v>
       </c>
       <c r="U200" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V200" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="V200" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="W200" s="12" t="s">
         <v>228</v>
@@ -27447,19 +27453,19 @@
         <v>3</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C204" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E204" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>177</v>
@@ -27493,7 +27499,7 @@
         <v>3</v>
       </c>
       <c r="R204" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S204" s="5" t="s">
         <v>3</v>
@@ -27502,10 +27508,10 @@
         <v>185</v>
       </c>
       <c r="U204" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V204" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="V204" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="W204" s="12" t="s">
         <v>228</v>
@@ -27947,7 +27953,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="208" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="208" spans="1:92" s="5" customFormat="1" ht="63.75">
       <c r="A208" s="27" t="s">
         <v>3</v>
       </c>
@@ -27955,16 +27961,16 @@
         <v>176</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E208" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>177</v>
@@ -27998,7 +28004,7 @@
         <v>3</v>
       </c>
       <c r="R208" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S208" s="5" t="s">
         <v>3</v>
@@ -28007,10 +28013,10 @@
         <v>185</v>
       </c>
       <c r="U208" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V208" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W208" s="12" t="s">
         <v>228</v>
@@ -28018,7 +28024,7 @@
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
       <c r="Z208" s="12" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="AA208" s="12" t="s">
         <v>29</v>
@@ -28463,13 +28469,13 @@
         <v>156</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E212" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>177</v>
@@ -28503,7 +28509,7 @@
         <v>3</v>
       </c>
       <c r="R212" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S212" s="5" t="s">
         <v>3</v>
@@ -28512,10 +28518,10 @@
         <v>185</v>
       </c>
       <c r="U212" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V212" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="V212" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="W212" s="12" t="s">
         <v>228</v>
@@ -28631,7 +28637,7 @@
     </row>
     <row r="214" spans="1:92" s="8" customFormat="1">
       <c r="A214" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B214" s="7"/>
       <c r="E214" s="28"/>
@@ -28692,13 +28698,13 @@
         <v>17</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G215" s="13" t="s">
         <v>115</v>
@@ -28962,19 +28968,19 @@
         <v>3</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E216" s="19" t="s">
         <v>3</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>177</v>
@@ -29008,7 +29014,7 @@
         <v>3</v>
       </c>
       <c r="R216" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S216" s="5" t="s">
         <v>3</v>
@@ -29017,10 +29023,10 @@
         <v>185</v>
       </c>
       <c r="U216" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V216" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W216" s="12" t="s">
         <v>228</v>
@@ -29136,7 +29142,7 @@
     </row>
     <row r="218" spans="1:92" s="8" customFormat="1">
       <c r="A218" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B218" s="7"/>
       <c r="E218" s="28"/>
@@ -29197,13 +29203,13 @@
         <v>17</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G219" s="13" t="s">
         <v>115</v>
@@ -29467,19 +29473,19 @@
         <v>3</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E220" s="19" t="s">
         <v>3</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>177</v>
@@ -29513,7 +29519,7 @@
         <v>3</v>
       </c>
       <c r="R220" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S220" s="5" t="s">
         <v>3</v>
@@ -29522,10 +29528,10 @@
         <v>185</v>
       </c>
       <c r="U220" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V220" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W220" s="12" t="s">
         <v>228</v>
@@ -29641,7 +29647,7 @@
     </row>
     <row r="222" spans="1:92" s="8" customFormat="1">
       <c r="A222" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B222" s="7"/>
       <c r="E222" s="28"/>
@@ -29756,7 +29762,7 @@
         <v>27</v>
       </c>
       <c r="V223" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W223" s="16" t="s">
         <v>28</v>
@@ -29972,19 +29978,19 @@
         <v>3</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E224" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>177</v>
@@ -30018,7 +30024,7 @@
         <v>3</v>
       </c>
       <c r="R224" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S224" s="5" t="s">
         <v>3</v>
@@ -30027,10 +30033,10 @@
         <v>185</v>
       </c>
       <c r="U224" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V224" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W224" s="12" t="s">
         <v>228</v>
@@ -30146,7 +30152,7 @@
     </row>
     <row r="226" spans="1:92" s="8" customFormat="1">
       <c r="A226" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B226" s="7"/>
       <c r="E226" s="28"/>
@@ -30261,7 +30267,7 @@
         <v>27</v>
       </c>
       <c r="V227" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="W227" s="16" t="s">
         <v>28</v>
@@ -30477,19 +30483,19 @@
         <v>3</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E228" s="19" t="s">
         <v>175</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>177</v>
@@ -30523,7 +30529,7 @@
         <v>3</v>
       </c>
       <c r="R228" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S228" s="5" t="s">
         <v>3</v>
@@ -30532,10 +30538,10 @@
         <v>185</v>
       </c>
       <c r="U228" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V228" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W228" s="12" t="s">
         <v>228</v>
@@ -30646,10 +30652,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:92" ht="409.6">
+    <row r="229" spans="1:92">
       <c r="E229" s="31"/>
     </row>
-    <row r="230" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="230" spans="1:92" s="8" customFormat="1">
       <c r="A230" s="38" t="s">
         <v>205</v>
       </c>
@@ -30988,13 +30994,13 @@
         <v>7</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E232" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>177</v>
@@ -31035,10 +31041,10 @@
         <v>203</v>
       </c>
       <c r="U232" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V232" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="V232" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="W232" s="12" t="s">
         <v>228</v>
@@ -31149,12 +31155,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:92" ht="409.6">
+    <row r="233" spans="1:92">
       <c r="E233" s="31"/>
     </row>
-    <row r="234" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="234" spans="1:92" s="8" customFormat="1">
       <c r="A234" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B234" s="7"/>
       <c r="E234" s="28"/>
@@ -31485,19 +31491,19 @@
         <v>3</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C236" s="39" t="s">
         <v>156</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>177</v>
@@ -31538,10 +31544,10 @@
         <v>203</v>
       </c>
       <c r="U236" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V236" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="V236" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="W236" s="12" t="s">
         <v>228</v>
@@ -31652,10 +31658,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:92" ht="409.6">
+    <row r="237" spans="1:92">
       <c r="E237" s="31"/>
     </row>
-    <row r="238" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="238" spans="1:92" s="8" customFormat="1">
       <c r="A238" s="38" t="s">
         <v>201</v>
       </c>
@@ -31983,7 +31989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="240" spans="1:92" s="5" customFormat="1" ht="63.75">
       <c r="A240" s="27" t="s">
         <v>3</v>
       </c>
@@ -31991,16 +31997,16 @@
         <v>202</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E240" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="F240" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>177</v>
@@ -32022,10 +32028,10 @@
         <v>180</v>
       </c>
       <c r="N240" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O240" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P240" s="12" t="s">
         <v>122</v>
@@ -32041,10 +32047,10 @@
         <v>203</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V240" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W240" s="12" t="s">
         <v>228</v>
@@ -32052,7 +32058,7 @@
       <c r="X240" s="12"/>
       <c r="Y240" s="12"/>
       <c r="Z240" s="12" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="AA240" s="12" t="s">
         <v>29</v>
@@ -32155,10 +32161,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:92" ht="409.6">
+    <row r="241" spans="1:92">
       <c r="E241" s="31"/>
     </row>
-    <row r="242" spans="1:92" s="8" customFormat="1" ht="409.6">
+    <row r="242" spans="1:92" s="8" customFormat="1">
       <c r="A242" s="38" t="s">
         <v>220</v>
       </c>
@@ -32497,13 +32503,13 @@
         <v>156</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>177</v>
@@ -32544,10 +32550,10 @@
         <v>203</v>
       </c>
       <c r="U244" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V244" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="V244" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="W244" s="12" t="s">
         <v>228</v>
@@ -32658,13 +32664,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:92" ht="409.6">
+    <row r="245" spans="1:92">
       <c r="E245" s="31"/>
     </row>
-    <row r="246" spans="1:92" ht="409.6">
+    <row r="246" spans="1:92">
       <c r="E246" s="31"/>
     </row>
-    <row r="247" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="247" spans="1:92" s="26" customFormat="1">
       <c r="A247" s="23"/>
       <c r="B247" s="24"/>
       <c r="C247" s="23"/>
@@ -32732,7 +32738,7 @@
       <c r="BO247" s="25"/>
       <c r="BP247" s="25"/>
     </row>
-    <row r="248" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="248" spans="1:92" s="26" customFormat="1">
       <c r="A248" s="23"/>
       <c r="B248" s="24"/>
       <c r="C248" s="23"/>
@@ -32800,7 +32806,7 @@
       <c r="BO248" s="25"/>
       <c r="BP248" s="25"/>
     </row>
-    <row r="249" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="249" spans="1:92" s="26" customFormat="1">
       <c r="A249" s="23"/>
       <c r="B249" s="24"/>
       <c r="C249" s="23"/>
@@ -32868,7 +32874,7 @@
       <c r="BO249" s="25"/>
       <c r="BP249" s="25"/>
     </row>
-    <row r="250" spans="1:92" s="26" customFormat="1" ht="409.6">
+    <row r="250" spans="1:92" s="26" customFormat="1">
       <c r="A250" s="23"/>
       <c r="B250" s="24"/>
       <c r="C250" s="23"/>
@@ -32942,8 +32948,9 @@
     <hyperlink ref="D192" r:id="rId2" display="AJOETEST@GMAIL.COM :: Professional Engineer :: JA&amp; LLC"/>
     <hyperlink ref="AA192" r:id="rId3"/>
     <hyperlink ref="AB192" r:id="rId4"/>
+    <hyperlink ref="D50" r:id="rId5" display="AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2V"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/src/com/data/Test Cases Fab4.xlsx
+++ b/src/com/data/Test Cases Fab4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1185" windowWidth="21645" windowHeight="11100" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="22095" windowHeight="10200" tabRatio="152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8361" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="348">
   <si>
     <t>TCID</t>
   </si>
@@ -981,9 +981,6 @@
     <t>SgPayByCreditCard</t>
   </si>
   <si>
-    <t>Construction Fence</t>
-  </si>
-  <si>
     <t>Standard Plan Examination or Review</t>
   </si>
   <si>
@@ -996,9 +993,6 @@
     <t>Construction Fence work :: 1111 :: 1.00 :: 3333</t>
   </si>
   <si>
-    <t>Supported Scaffold</t>
-  </si>
-  <si>
     <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: SF1</t>
   </si>
   <si>
@@ -1011,9 +1005,6 @@
     <t>Sign work :: 1111 :: 1.00 :: 3333</t>
   </si>
   <si>
-    <t>Sidewalk Shed</t>
-  </si>
-  <si>
     <t>302 :: THIRD AVENUE :: MANHATTAN :: 879 :: 7502 :: SH1</t>
   </si>
   <si>
@@ -1053,7 +1044,22 @@
     <t>AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2V :: APPLEROME16@GMAIL.COM</t>
   </si>
   <si>
-    <t>Y :: APPLEROME18@GMAIL.COM</t>
+    <t>AJOETEST@GMAIL.COM :: Construction Fence :: 0 :: 0 :: 1</t>
+  </si>
+  <si>
+    <t>AJOETEST@GMAIL.COM :: Supported Scaffold :: 0 :: 0 :: 1</t>
+  </si>
+  <si>
+    <t>AJOETEST@GMAIL.COM :: Sign :: 0 :: 0 :: 1</t>
+  </si>
+  <si>
+    <t>AJOETEST@GMAIL.COM :: Sidewalk Shed :: 0 :: 0 :: 1</t>
+  </si>
+  <si>
+    <t>1 :: Electrical Energy Consumption :: AJOETEST@GMAIL.COM :: Professional Engineer</t>
+  </si>
+  <si>
+    <t>NYCECC :: Tabular Analysis :: Y</t>
   </si>
 </sst>
 </file>
@@ -3028,9 +3034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z242" sqref="Z242"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -3680,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>175</v>
@@ -4185,7 +4191,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>175</v>
@@ -5308,7 +5314,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>80</v>
@@ -5808,7 +5814,7 @@
         <v>156</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>80</v>
@@ -6308,7 +6314,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>80</v>
@@ -6808,7 +6814,7 @@
         <v>156</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>80</v>
@@ -7308,7 +7314,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>80</v>
@@ -7808,7 +7814,7 @@
         <v>156</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>80</v>
@@ -8308,7 +8314,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>80</v>
@@ -8808,7 +8814,7 @@
         <v>156</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>80</v>
@@ -9308,7 +9314,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>80</v>
@@ -9808,7 +9814,7 @@
         <v>156</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>80</v>
@@ -10308,7 +10314,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>80</v>
@@ -10808,7 +10814,7 @@
         <v>156</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>80</v>
@@ -11308,7 +11314,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>80</v>
@@ -11808,7 +11814,7 @@
         <v>156</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>80</v>
@@ -12308,7 +12314,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>80</v>
@@ -12808,7 +12814,7 @@
         <v>156</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>80</v>
@@ -13308,7 +13314,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>80</v>
@@ -13808,7 +13814,7 @@
         <v>156</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>80</v>
@@ -14308,7 +14314,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>152</v>
@@ -14808,7 +14814,7 @@
         <v>156</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>152</v>
@@ -15308,7 +15314,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>81</v>
@@ -15802,7 +15808,7 @@
         <v>156</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>81</v>
@@ -16296,7 +16302,7 @@
         <v>7</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>81</v>
@@ -16793,7 +16799,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>81</v>
@@ -17290,7 +17296,7 @@
         <v>156</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>81</v>
@@ -17784,7 +17790,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>81</v>
@@ -18278,7 +18284,7 @@
         <v>156</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>81</v>
@@ -18908,7 +18914,7 @@
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>208</v>
@@ -19411,7 +19417,7 @@
         <v>156</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>208</v>
@@ -19903,7 +19909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:92" s="5" customFormat="1" ht="63.75">
+    <row r="144" spans="1:92" s="5" customFormat="1" ht="90">
       <c r="A144" s="27" t="s">
         <v>3</v>
       </c>
@@ -19911,16 +19917,16 @@
         <v>207</v>
       </c>
       <c r="C144" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E144" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E144" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>177</v>
@@ -19942,7 +19948,7 @@
         <v>180</v>
       </c>
       <c r="N144" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O144" s="12" t="s">
         <v>197</v>
@@ -19961,24 +19967,24 @@
         <v>209</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V144" s="5" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="W144" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X144" s="12"/>
       <c r="Y144" s="12"/>
       <c r="Z144" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA144" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB144" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA144" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB144" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC144" s="12" t="s">
         <v>3</v>
@@ -20417,7 +20423,7 @@
         <v>156</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E148" s="19" t="s">
         <v>208</v>
@@ -20920,7 +20926,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E152" s="19" t="s">
         <v>287</v>
@@ -21423,7 +21429,7 @@
         <v>156</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E156" s="19" t="s">
         <v>287</v>
@@ -21926,7 +21932,7 @@
         <v>7</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E160" s="19" t="s">
         <v>287</v>
@@ -22429,7 +22435,7 @@
         <v>156</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E164" s="19" t="s">
         <v>287</v>
@@ -22932,7 +22938,7 @@
         <v>7</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E168" s="19" t="s">
         <v>287</v>
@@ -23435,7 +23441,7 @@
         <v>156</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E172" s="19" t="s">
         <v>287</v>
@@ -23927,7 +23933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:92" s="5" customFormat="1" ht="63.75">
+    <row r="176" spans="1:92" s="5" customFormat="1" ht="75">
       <c r="A176" s="27" t="s">
         <v>3</v>
       </c>
@@ -23935,16 +23941,16 @@
         <v>190</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D176" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E176" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="E176" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="F176" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>177</v>
@@ -23966,7 +23972,7 @@
         <v>180</v>
       </c>
       <c r="N176" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O176" s="12"/>
       <c r="P176" s="12" t="s">
@@ -23985,24 +23991,24 @@
         <v>191</v>
       </c>
       <c r="U176" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V176" s="5" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="W176" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
       <c r="Z176" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA176" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB176" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA176" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB176" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC176" s="12" t="s">
         <v>3</v>
@@ -24441,7 +24447,7 @@
         <v>156</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E180" s="19" t="s">
         <v>287</v>
@@ -24944,7 +24950,7 @@
         <v>7</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E184" s="19" t="s">
         <v>287</v>
@@ -25447,7 +25453,7 @@
         <v>156</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E188" s="19" t="s">
         <v>287</v>
@@ -25478,7 +25484,7 @@
         <v>3</v>
       </c>
       <c r="O188" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P188" s="12" t="s">
         <v>122</v>
@@ -25950,13 +25956,13 @@
         <v>7</v>
       </c>
       <c r="D192" s="41" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>177</v>
@@ -25968,7 +25974,7 @@
         <v>3</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>178</v>
@@ -25978,10 +25984,10 @@
         <v>180</v>
       </c>
       <c r="N192" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P192" s="12" t="s">
         <v>122</v>
@@ -25995,24 +26001,24 @@
         <v>198</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V192" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W192" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
       <c r="Z192" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AA192" s="42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AB192" s="42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AC192" s="12" t="s">
         <v>3</v>
@@ -26451,7 +26457,7 @@
         <v>156</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E196" s="19" t="s">
         <v>287</v>
@@ -26954,7 +26960,7 @@
         <v>7</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E200" s="19" t="s">
         <v>175</v>
@@ -27459,7 +27465,7 @@
         <v>156</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E204" s="19" t="s">
         <v>175</v>
@@ -27953,7 +27959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="208" spans="1:92" s="5" customFormat="1" ht="63.75">
+    <row r="208" spans="1:92" s="5" customFormat="1" ht="60">
       <c r="A208" s="27" t="s">
         <v>3</v>
       </c>
@@ -27961,16 +27967,16 @@
         <v>176</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E208" s="19" t="s">
-        <v>175</v>
+        <v>334</v>
+      </c>
+      <c r="E208" s="40" t="s">
+        <v>344</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>177</v>
@@ -28013,24 +28019,24 @@
         <v>185</v>
       </c>
       <c r="U208" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="V208" s="5" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="W208" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
       <c r="Z208" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA208" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB208" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA208" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB208" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC208" s="12" t="s">
         <v>3</v>
@@ -28469,7 +28475,7 @@
         <v>156</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E212" s="19" t="s">
         <v>175</v>
@@ -29984,7 +29990,7 @@
         <v>7</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E224" s="19" t="s">
         <v>175</v>
@@ -30489,7 +30495,7 @@
         <v>7</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E228" s="19" t="s">
         <v>175</v>
@@ -30994,7 +31000,7 @@
         <v>7</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E232" s="19" t="s">
         <v>288</v>
@@ -31497,7 +31503,7 @@
         <v>156</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E236" s="19" t="s">
         <v>288</v>
@@ -31989,7 +31995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:92" s="5" customFormat="1" ht="63.75">
+    <row r="240" spans="1:92" s="5" customFormat="1" ht="75">
       <c r="A240" s="27" t="s">
         <v>3</v>
       </c>
@@ -31997,16 +32003,16 @@
         <v>202</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E240" s="19" t="s">
-        <v>331</v>
+        <v>334</v>
+      </c>
+      <c r="E240" s="40" t="s">
+        <v>345</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>177</v>
@@ -32023,15 +32029,17 @@
       <c r="K240" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L240" s="12"/>
+      <c r="L240" s="12" t="s">
+        <v>347</v>
+      </c>
       <c r="M240" s="12" t="s">
         <v>180</v>
       </c>
       <c r="N240" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O240" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P240" s="12" t="s">
         <v>122</v>
@@ -32047,24 +32055,24 @@
         <v>203</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V240" s="5" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="W240" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X240" s="12"/>
       <c r="Y240" s="12"/>
       <c r="Z240" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA240" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB240" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA240" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB240" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC240" s="12" t="s">
         <v>3</v>
@@ -32503,7 +32511,7 @@
         <v>156</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E244" s="19" t="s">
         <v>288</v>
@@ -32949,8 +32957,20 @@
     <hyperlink ref="AA192" r:id="rId3"/>
     <hyperlink ref="AB192" r:id="rId4"/>
     <hyperlink ref="D50" r:id="rId5" display="AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2V"/>
+    <hyperlink ref="AA176" r:id="rId6"/>
+    <hyperlink ref="AB176" r:id="rId7"/>
+    <hyperlink ref="AA208" r:id="rId8"/>
+    <hyperlink ref="AB208" r:id="rId9"/>
+    <hyperlink ref="AA240" r:id="rId10"/>
+    <hyperlink ref="AB240" r:id="rId11"/>
+    <hyperlink ref="AA144" r:id="rId12"/>
+    <hyperlink ref="AB144" r:id="rId13"/>
+    <hyperlink ref="E144" r:id="rId14"/>
+    <hyperlink ref="E176" r:id="rId15"/>
+    <hyperlink ref="E208" r:id="rId16"/>
+    <hyperlink ref="E240" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/src/com/data/Test Cases Fab4.xlsx
+++ b/src/com/data/Test Cases Fab4.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="22095" windowHeight="10200" tabRatio="152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="22095" windowHeight="10200" tabRatio="152" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A156:K170"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8654" uniqueCount="353">
   <si>
     <t>TCID</t>
   </si>
@@ -1060,6 +1060,21 @@
   </si>
   <si>
     <t>NYCECC :: Tabular Analysis :: Y</t>
+  </si>
+  <si>
+    <t>Y :: APPLEROME18@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>SfLglStd</t>
+  </si>
+  <si>
+    <t>Supported Scaffold - Legalization - Standard</t>
+  </si>
+  <si>
+    <t>FnLglStd</t>
+  </si>
+  <si>
+    <t>Construction Fence - Legalization - Standard</t>
   </si>
 </sst>
 </file>
@@ -2306,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -2774,6 +2789,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="57" spans="1:3">
       <c r="A57" s="38" t="s">
         <v>201</v>
@@ -3032,11 +3063,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW250"/>
+  <dimension ref="A1:CW258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K240" sqref="K240"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG164" sqref="AG164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -17997,7 +18028,7 @@
       <c r="BO128" s="7"/>
       <c r="BP128" s="7"/>
     </row>
-    <row r="129" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="129" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A129" s="15" t="s">
         <v>2</v>
       </c>
@@ -18273,7 +18304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="130" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A130" s="27" t="s">
         <v>3</v>
       </c>
@@ -18439,7 +18470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:92" s="26" customFormat="1">
+    <row r="132" spans="1:101" s="26" customFormat="1">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="23"/>
@@ -18507,7 +18538,7 @@
       <c r="BO132" s="25"/>
       <c r="BP132" s="25"/>
     </row>
-    <row r="133" spans="1:92" s="26" customFormat="1">
+    <row r="133" spans="1:101" s="26" customFormat="1">
       <c r="A133" s="23"/>
       <c r="B133" s="24"/>
       <c r="C133" s="23"/>
@@ -18575,7 +18606,7 @@
       <c r="BO133" s="25"/>
       <c r="BP133" s="25"/>
     </row>
-    <row r="134" spans="1:92" s="8" customFormat="1">
+    <row r="134" spans="1:101" s="8" customFormat="1">
       <c r="A134" s="38" t="s">
         <v>210</v>
       </c>
@@ -18627,7 +18658,7 @@
       <c r="BO134" s="7"/>
       <c r="BP134" s="7"/>
     </row>
-    <row r="135" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="135" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A135" s="15" t="s">
         <v>2</v>
       </c>
@@ -18903,7 +18934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="136" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A136" s="27" t="s">
         <v>3</v>
       </c>
@@ -19075,10 +19106,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:92">
+    <row r="137" spans="1:101">
       <c r="E137" s="31"/>
     </row>
-    <row r="138" spans="1:92" s="8" customFormat="1">
+    <row r="138" spans="1:101" s="8" customFormat="1">
       <c r="A138" s="38" t="s">
         <v>268</v>
       </c>
@@ -19130,7 +19161,7 @@
       <c r="BO138" s="7"/>
       <c r="BP138" s="7"/>
     </row>
-    <row r="139" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="139" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A139" s="15" t="s">
         <v>2</v>
       </c>
@@ -19406,7 +19437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="140" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A140" s="27" t="s">
         <v>3</v>
       </c>
@@ -19578,12 +19609,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:92">
+    <row r="141" spans="1:101" s="11" customFormat="1">
+      <c r="A141" s="10"/>
+      <c r="B141" s="18"/>
       <c r="E141" s="31"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="31"/>
+      <c r="R141" s="31"/>
+      <c r="U141" s="10"/>
+      <c r="V141" s="10"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="10"/>
+      <c r="Z141" s="10"/>
+      <c r="AA141" s="10"/>
+      <c r="AB141" s="10"/>
+      <c r="AC141" s="10"/>
+      <c r="AD141" s="10"/>
+      <c r="AE141" s="10"/>
+      <c r="AF141" s="10"/>
+      <c r="AG141" s="10"/>
+      <c r="AI141" s="10"/>
+      <c r="AJ141" s="10"/>
+      <c r="AK141" s="10"/>
+      <c r="AL141" s="10"/>
+      <c r="AM141" s="10"/>
+      <c r="AN141" s="10"/>
+      <c r="AO141" s="10"/>
+      <c r="AQ141" s="10"/>
+      <c r="AS141" s="10"/>
+      <c r="AT141" s="10"/>
+      <c r="AU141" s="10"/>
+      <c r="AV141" s="10"/>
+      <c r="AW141" s="10"/>
+      <c r="BG141" s="10"/>
+      <c r="BI141" s="10"/>
+      <c r="BJ141" s="10"/>
+      <c r="BK141" s="10"/>
+      <c r="BL141" s="10"/>
+      <c r="BM141" s="10"/>
+      <c r="BN141" s="10"/>
+      <c r="BO141" s="10"/>
+      <c r="BP141" s="10"/>
     </row>
-    <row r="142" spans="1:92" s="8" customFormat="1">
+    <row r="142" spans="1:101" s="8" customFormat="1">
       <c r="A142" s="38" t="s">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="B142" s="7"/>
       <c r="E142" s="28"/>
@@ -19633,7 +19711,7 @@
       <c r="BO142" s="7"/>
       <c r="BP142" s="7"/>
     </row>
-    <row r="143" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="143" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A143" s="15" t="s">
         <v>2</v>
       </c>
@@ -19909,12 +19987,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="144" spans="1:92" s="5" customFormat="1" ht="90">
+    <row r="144" spans="1:101" s="5" customFormat="1" ht="90">
       <c r="A144" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="22" t="s">
-        <v>207</v>
+        <v>352</v>
       </c>
       <c r="C144" s="21" t="s">
         <v>321</v>
@@ -19932,7 +20010,7 @@
         <v>177</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>3</v>
@@ -20081,12 +20159,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:92">
+    <row r="145" spans="1:101" s="11" customFormat="1">
+      <c r="A145" s="10"/>
+      <c r="B145" s="18"/>
       <c r="E145" s="31"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="10"/>
+      <c r="O145" s="10"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="31"/>
+      <c r="R145" s="31"/>
+      <c r="U145" s="10"/>
+      <c r="V145" s="10"/>
+      <c r="W145" s="10"/>
+      <c r="X145" s="10"/>
+      <c r="Y145" s="10"/>
+      <c r="Z145" s="10"/>
+      <c r="AA145" s="10"/>
+      <c r="AB145" s="10"/>
+      <c r="AC145" s="10"/>
+      <c r="AD145" s="10"/>
+      <c r="AE145" s="10"/>
+      <c r="AF145" s="10"/>
+      <c r="AG145" s="10"/>
+      <c r="AI145" s="10"/>
+      <c r="AJ145" s="10"/>
+      <c r="AK145" s="10"/>
+      <c r="AL145" s="10"/>
+      <c r="AM145" s="10"/>
+      <c r="AN145" s="10"/>
+      <c r="AO145" s="10"/>
+      <c r="AQ145" s="10"/>
+      <c r="AS145" s="10"/>
+      <c r="AT145" s="10"/>
+      <c r="AU145" s="10"/>
+      <c r="AV145" s="10"/>
+      <c r="AW145" s="10"/>
+      <c r="BG145" s="10"/>
+      <c r="BI145" s="10"/>
+      <c r="BJ145" s="10"/>
+      <c r="BK145" s="10"/>
+      <c r="BL145" s="10"/>
+      <c r="BM145" s="10"/>
+      <c r="BN145" s="10"/>
+      <c r="BO145" s="10"/>
+      <c r="BP145" s="10"/>
     </row>
-    <row r="146" spans="1:92" s="8" customFormat="1">
+    <row r="146" spans="1:101" s="8" customFormat="1">
       <c r="A146" s="38" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="B146" s="7"/>
       <c r="E146" s="28"/>
@@ -20136,7 +20261,7 @@
       <c r="BO146" s="7"/>
       <c r="BP146" s="7"/>
     </row>
-    <row r="147" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="147" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A147" s="15" t="s">
         <v>2</v>
       </c>
@@ -20412,24 +20537,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="148" spans="1:101" s="5" customFormat="1" ht="90">
       <c r="A148" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C148" s="39" t="s">
-        <v>156</v>
+        <v>207</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>208</v>
+        <v>334</v>
+      </c>
+      <c r="E148" s="40" t="s">
+        <v>342</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>177</v>
@@ -20451,7 +20576,7 @@
         <v>180</v>
       </c>
       <c r="N148" s="12" t="s">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="O148" s="12" t="s">
         <v>197</v>
@@ -20470,24 +20595,24 @@
         <v>209</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="V148" s="5" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="W148" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X148" s="12"/>
       <c r="Y148" s="12"/>
       <c r="Z148" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA148" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB148" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA148" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB148" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC148" s="12" t="s">
         <v>3</v>
@@ -20584,12 +20709,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:92">
+    <row r="149" spans="1:101" s="11" customFormat="1">
+      <c r="A149" s="10"/>
+      <c r="B149" s="18"/>
       <c r="E149" s="31"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10"/>
+      <c r="O149" s="10"/>
+      <c r="P149" s="10"/>
+      <c r="Q149" s="31"/>
+      <c r="R149" s="31"/>
+      <c r="U149" s="10"/>
+      <c r="V149" s="10"/>
+      <c r="W149" s="10"/>
+      <c r="X149" s="10"/>
+      <c r="Y149" s="10"/>
+      <c r="Z149" s="10"/>
+      <c r="AA149" s="10"/>
+      <c r="AB149" s="10"/>
+      <c r="AC149" s="10"/>
+      <c r="AD149" s="10"/>
+      <c r="AE149" s="10"/>
+      <c r="AF149" s="10"/>
+      <c r="AG149" s="10"/>
+      <c r="AI149" s="10"/>
+      <c r="AJ149" s="10"/>
+      <c r="AK149" s="10"/>
+      <c r="AL149" s="10"/>
+      <c r="AM149" s="10"/>
+      <c r="AN149" s="10"/>
+      <c r="AO149" s="10"/>
+      <c r="AQ149" s="10"/>
+      <c r="AS149" s="10"/>
+      <c r="AT149" s="10"/>
+      <c r="AU149" s="10"/>
+      <c r="AV149" s="10"/>
+      <c r="AW149" s="10"/>
+      <c r="BG149" s="10"/>
+      <c r="BI149" s="10"/>
+      <c r="BJ149" s="10"/>
+      <c r="BK149" s="10"/>
+      <c r="BL149" s="10"/>
+      <c r="BM149" s="10"/>
+      <c r="BN149" s="10"/>
+      <c r="BO149" s="10"/>
+      <c r="BP149" s="10"/>
     </row>
-    <row r="150" spans="1:92" s="8" customFormat="1">
+    <row r="150" spans="1:101" s="8" customFormat="1">
       <c r="A150" s="38" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="B150" s="7"/>
       <c r="E150" s="28"/>
@@ -20639,7 +20811,7 @@
       <c r="BO150" s="7"/>
       <c r="BP150" s="7"/>
     </row>
-    <row r="151" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="151" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A151" s="15" t="s">
         <v>2</v>
       </c>
@@ -20915,30 +21087,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="152" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A152" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C152" s="21" t="s">
-        <v>7</v>
+        <v>270</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>340</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>3</v>
@@ -20956,21 +21128,21 @@
       <c r="N152" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O152" s="12"/>
+      <c r="O152" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="P152" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q152" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R152" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="R152" s="12"/>
       <c r="S152" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T152" s="5" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="U152" s="5" t="s">
         <v>249</v>
@@ -21087,12 +21259,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:92">
+    <row r="153" spans="1:101" s="11" customFormat="1">
+      <c r="A153" s="10"/>
+      <c r="B153" s="18"/>
       <c r="E153" s="31"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="31"/>
+      <c r="R153" s="31"/>
+      <c r="U153" s="10"/>
+      <c r="V153" s="10"/>
+      <c r="W153" s="10"/>
+      <c r="X153" s="10"/>
+      <c r="Y153" s="10"/>
+      <c r="Z153" s="10"/>
+      <c r="AA153" s="10"/>
+      <c r="AB153" s="10"/>
+      <c r="AC153" s="10"/>
+      <c r="AD153" s="10"/>
+      <c r="AE153" s="10"/>
+      <c r="AF153" s="10"/>
+      <c r="AG153" s="10"/>
+      <c r="AI153" s="10"/>
+      <c r="AJ153" s="10"/>
+      <c r="AK153" s="10"/>
+      <c r="AL153" s="10"/>
+      <c r="AM153" s="10"/>
+      <c r="AN153" s="10"/>
+      <c r="AO153" s="10"/>
+      <c r="AQ153" s="10"/>
+      <c r="AS153" s="10"/>
+      <c r="AT153" s="10"/>
+      <c r="AU153" s="10"/>
+      <c r="AV153" s="10"/>
+      <c r="AW153" s="10"/>
+      <c r="BG153" s="10"/>
+      <c r="BI153" s="10"/>
+      <c r="BJ153" s="10"/>
+      <c r="BK153" s="10"/>
+      <c r="BL153" s="10"/>
+      <c r="BM153" s="10"/>
+      <c r="BN153" s="10"/>
+      <c r="BO153" s="10"/>
+      <c r="BP153" s="10"/>
     </row>
-    <row r="154" spans="1:92" s="8" customFormat="1">
+    <row r="154" spans="1:101" s="8" customFormat="1">
       <c r="A154" s="38" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="B154" s="7"/>
       <c r="E154" s="28"/>
@@ -21142,7 +21361,7 @@
       <c r="BO154" s="7"/>
       <c r="BP154" s="7"/>
     </row>
-    <row r="155" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="155" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A155" s="15" t="s">
         <v>2</v>
       </c>
@@ -21418,15 +21637,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="156" spans="1:101" s="5" customFormat="1" ht="63.75">
       <c r="A156" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C156" s="39" t="s">
-        <v>156</v>
+        <v>218</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>340</v>
@@ -21435,7 +21654,7 @@
         <v>287</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>177</v>
@@ -21487,7 +21706,7 @@
       <c r="X156" s="12"/>
       <c r="Y156" s="12"/>
       <c r="Z156" s="12" t="s">
-        <v>3</v>
+        <v>348</v>
       </c>
       <c r="AA156" s="12" t="s">
         <v>29</v>
@@ -21590,12 +21809,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:92">
+    <row r="157" spans="1:101" s="11" customFormat="1">
+      <c r="A157" s="10"/>
+      <c r="B157" s="18"/>
       <c r="E157" s="31"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="31"/>
+      <c r="R157" s="31"/>
+      <c r="U157" s="10"/>
+      <c r="V157" s="10"/>
+      <c r="W157" s="10"/>
+      <c r="X157" s="10"/>
+      <c r="Y157" s="10"/>
+      <c r="Z157" s="10"/>
+      <c r="AA157" s="10"/>
+      <c r="AB157" s="10"/>
+      <c r="AC157" s="10"/>
+      <c r="AD157" s="10"/>
+      <c r="AE157" s="10"/>
+      <c r="AF157" s="10"/>
+      <c r="AG157" s="10"/>
+      <c r="AI157" s="10"/>
+      <c r="AJ157" s="10"/>
+      <c r="AK157" s="10"/>
+      <c r="AL157" s="10"/>
+      <c r="AM157" s="10"/>
+      <c r="AN157" s="10"/>
+      <c r="AO157" s="10"/>
+      <c r="AQ157" s="10"/>
+      <c r="AS157" s="10"/>
+      <c r="AT157" s="10"/>
+      <c r="AU157" s="10"/>
+      <c r="AV157" s="10"/>
+      <c r="AW157" s="10"/>
+      <c r="BG157" s="10"/>
+      <c r="BI157" s="10"/>
+      <c r="BJ157" s="10"/>
+      <c r="BK157" s="10"/>
+      <c r="BL157" s="10"/>
+      <c r="BM157" s="10"/>
+      <c r="BN157" s="10"/>
+      <c r="BO157" s="10"/>
+      <c r="BP157" s="10"/>
     </row>
-    <row r="158" spans="1:92" s="8" customFormat="1">
+    <row r="158" spans="1:101" s="8" customFormat="1">
       <c r="A158" s="38" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B158" s="7"/>
       <c r="E158" s="28"/>
@@ -21645,7 +21911,7 @@
       <c r="BO158" s="7"/>
       <c r="BP158" s="7"/>
     </row>
-    <row r="159" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="159" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A159" s="15" t="s">
         <v>2</v>
       </c>
@@ -21921,15 +22187,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="160" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="160" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A160" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>7</v>
+        <v>225</v>
+      </c>
+      <c r="C160" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>340</v>
@@ -21938,13 +22204,13 @@
         <v>287</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>3</v>
@@ -21962,21 +22228,21 @@
       <c r="N160" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O160" s="12" t="s">
-        <v>197</v>
-      </c>
+      <c r="O160" s="12"/>
       <c r="P160" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q160" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R160" s="12"/>
+      <c r="R160" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="S160" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T160" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U160" s="5" t="s">
         <v>249</v>
@@ -22093,12 +22359,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:92">
+    <row r="161" spans="1:101" s="11" customFormat="1">
+      <c r="A161" s="10"/>
+      <c r="B161" s="18"/>
       <c r="E161" s="31"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10"/>
+      <c r="P161" s="10"/>
+      <c r="Q161" s="31"/>
+      <c r="R161" s="31"/>
+      <c r="U161" s="10"/>
+      <c r="V161" s="10"/>
+      <c r="W161" s="10"/>
+      <c r="X161" s="10"/>
+      <c r="Y161" s="10"/>
+      <c r="Z161" s="10"/>
+      <c r="AA161" s="10"/>
+      <c r="AB161" s="10"/>
+      <c r="AC161" s="10"/>
+      <c r="AD161" s="10"/>
+      <c r="AE161" s="10"/>
+      <c r="AF161" s="10"/>
+      <c r="AG161" s="10"/>
+      <c r="AI161" s="10"/>
+      <c r="AJ161" s="10"/>
+      <c r="AK161" s="10"/>
+      <c r="AL161" s="10"/>
+      <c r="AM161" s="10"/>
+      <c r="AN161" s="10"/>
+      <c r="AO161" s="10"/>
+      <c r="AQ161" s="10"/>
+      <c r="AS161" s="10"/>
+      <c r="AT161" s="10"/>
+      <c r="AU161" s="10"/>
+      <c r="AV161" s="10"/>
+      <c r="AW161" s="10"/>
+      <c r="BG161" s="10"/>
+      <c r="BI161" s="10"/>
+      <c r="BJ161" s="10"/>
+      <c r="BK161" s="10"/>
+      <c r="BL161" s="10"/>
+      <c r="BM161" s="10"/>
+      <c r="BN161" s="10"/>
+      <c r="BO161" s="10"/>
+      <c r="BP161" s="10"/>
     </row>
-    <row r="162" spans="1:92" s="8" customFormat="1">
+    <row r="162" spans="1:101" s="8" customFormat="1">
       <c r="A162" s="38" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="B162" s="7"/>
       <c r="E162" s="28"/>
@@ -22148,7 +22461,7 @@
       <c r="BO162" s="7"/>
       <c r="BP162" s="7"/>
     </row>
-    <row r="163" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="163" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A163" s="15" t="s">
         <v>2</v>
       </c>
@@ -22424,30 +22737,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="164" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="164" spans="1:101" s="5" customFormat="1" ht="75">
       <c r="A164" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B164" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C164" s="39" t="s">
-        <v>156</v>
+        <v>350</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E164" s="19" t="s">
-        <v>287</v>
+        <v>334</v>
+      </c>
+      <c r="E164" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>3</v>
@@ -22463,43 +22776,43 @@
         <v>180</v>
       </c>
       <c r="N164" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O164" s="12" t="s">
-        <v>197</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O164" s="12"/>
       <c r="P164" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q164" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R164" s="12"/>
+      <c r="R164" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="S164" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T164" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U164" s="5" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="V164" s="5" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="W164" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X164" s="12"/>
       <c r="Y164" s="12"/>
       <c r="Z164" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA164" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB164" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA164" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB164" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC164" s="12" t="s">
         <v>3</v>
@@ -22596,12 +22909,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:92">
+    <row r="165" spans="1:101" s="11" customFormat="1">
+      <c r="A165" s="10"/>
+      <c r="B165" s="18"/>
       <c r="E165" s="31"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="31"/>
+      <c r="R165" s="31"/>
+      <c r="U165" s="10"/>
+      <c r="V165" s="10"/>
+      <c r="W165" s="10"/>
+      <c r="X165" s="10"/>
+      <c r="Y165" s="10"/>
+      <c r="Z165" s="10"/>
+      <c r="AA165" s="10"/>
+      <c r="AB165" s="10"/>
+      <c r="AC165" s="10"/>
+      <c r="AD165" s="10"/>
+      <c r="AE165" s="10"/>
+      <c r="AF165" s="10"/>
+      <c r="AG165" s="10"/>
+      <c r="AI165" s="10"/>
+      <c r="AJ165" s="10"/>
+      <c r="AK165" s="10"/>
+      <c r="AL165" s="10"/>
+      <c r="AM165" s="10"/>
+      <c r="AN165" s="10"/>
+      <c r="AO165" s="10"/>
+      <c r="AQ165" s="10"/>
+      <c r="AS165" s="10"/>
+      <c r="AT165" s="10"/>
+      <c r="AU165" s="10"/>
+      <c r="AV165" s="10"/>
+      <c r="AW165" s="10"/>
+      <c r="BG165" s="10"/>
+      <c r="BI165" s="10"/>
+      <c r="BJ165" s="10"/>
+      <c r="BK165" s="10"/>
+      <c r="BL165" s="10"/>
+      <c r="BM165" s="10"/>
+      <c r="BN165" s="10"/>
+      <c r="BO165" s="10"/>
+      <c r="BP165" s="10"/>
     </row>
-    <row r="166" spans="1:92" s="8" customFormat="1">
+    <row r="166" spans="1:101" s="8" customFormat="1">
       <c r="A166" s="38" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B166" s="7"/>
       <c r="E166" s="28"/>
@@ -22651,7 +23011,7 @@
       <c r="BO166" s="7"/>
       <c r="BP166" s="7"/>
     </row>
-    <row r="167" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="167" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A167" s="15" t="s">
         <v>2</v>
       </c>
@@ -22927,12 +23287,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="168" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="168" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A168" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="22" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C168" s="21" t="s">
         <v>7</v>
@@ -23099,12 +23459,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:92">
+    <row r="169" spans="1:101" s="11" customFormat="1">
+      <c r="A169" s="10"/>
+      <c r="B169" s="18"/>
       <c r="E169" s="31"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="31"/>
+      <c r="R169" s="31"/>
+      <c r="U169" s="10"/>
+      <c r="V169" s="10"/>
+      <c r="W169" s="10"/>
+      <c r="X169" s="10"/>
+      <c r="Y169" s="10"/>
+      <c r="Z169" s="10"/>
+      <c r="AA169" s="10"/>
+      <c r="AB169" s="10"/>
+      <c r="AC169" s="10"/>
+      <c r="AD169" s="10"/>
+      <c r="AE169" s="10"/>
+      <c r="AF169" s="10"/>
+      <c r="AG169" s="10"/>
+      <c r="AI169" s="10"/>
+      <c r="AJ169" s="10"/>
+      <c r="AK169" s="10"/>
+      <c r="AL169" s="10"/>
+      <c r="AM169" s="10"/>
+      <c r="AN169" s="10"/>
+      <c r="AO169" s="10"/>
+      <c r="AQ169" s="10"/>
+      <c r="AS169" s="10"/>
+      <c r="AT169" s="10"/>
+      <c r="AU169" s="10"/>
+      <c r="AV169" s="10"/>
+      <c r="AW169" s="10"/>
+      <c r="BG169" s="10"/>
+      <c r="BI169" s="10"/>
+      <c r="BJ169" s="10"/>
+      <c r="BK169" s="10"/>
+      <c r="BL169" s="10"/>
+      <c r="BM169" s="10"/>
+      <c r="BN169" s="10"/>
+      <c r="BO169" s="10"/>
+      <c r="BP169" s="10"/>
     </row>
-    <row r="170" spans="1:92" s="8" customFormat="1">
+    <row r="170" spans="1:101" s="8" customFormat="1">
       <c r="A170" s="38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B170" s="7"/>
       <c r="E170" s="28"/>
@@ -23154,7 +23561,7 @@
       <c r="BO170" s="7"/>
       <c r="BP170" s="7"/>
     </row>
-    <row r="171" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="171" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A171" s="15" t="s">
         <v>2</v>
       </c>
@@ -23430,12 +23837,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="172" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="172" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A172" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C172" s="39" t="s">
         <v>156</v>
@@ -23602,12 +24009,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:92">
+    <row r="173" spans="1:101" s="11" customFormat="1">
+      <c r="A173" s="10"/>
+      <c r="B173" s="18"/>
       <c r="E173" s="31"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="10"/>
+      <c r="N173" s="10"/>
+      <c r="O173" s="10"/>
+      <c r="P173" s="10"/>
+      <c r="Q173" s="31"/>
+      <c r="R173" s="31"/>
+      <c r="U173" s="10"/>
+      <c r="V173" s="10"/>
+      <c r="W173" s="10"/>
+      <c r="X173" s="10"/>
+      <c r="Y173" s="10"/>
+      <c r="Z173" s="10"/>
+      <c r="AA173" s="10"/>
+      <c r="AB173" s="10"/>
+      <c r="AC173" s="10"/>
+      <c r="AD173" s="10"/>
+      <c r="AE173" s="10"/>
+      <c r="AF173" s="10"/>
+      <c r="AG173" s="10"/>
+      <c r="AI173" s="10"/>
+      <c r="AJ173" s="10"/>
+      <c r="AK173" s="10"/>
+      <c r="AL173" s="10"/>
+      <c r="AM173" s="10"/>
+      <c r="AN173" s="10"/>
+      <c r="AO173" s="10"/>
+      <c r="AQ173" s="10"/>
+      <c r="AS173" s="10"/>
+      <c r="AT173" s="10"/>
+      <c r="AU173" s="10"/>
+      <c r="AV173" s="10"/>
+      <c r="AW173" s="10"/>
+      <c r="BG173" s="10"/>
+      <c r="BI173" s="10"/>
+      <c r="BJ173" s="10"/>
+      <c r="BK173" s="10"/>
+      <c r="BL173" s="10"/>
+      <c r="BM173" s="10"/>
+      <c r="BN173" s="10"/>
+      <c r="BO173" s="10"/>
+      <c r="BP173" s="10"/>
     </row>
-    <row r="174" spans="1:92" s="8" customFormat="1">
+    <row r="174" spans="1:101" s="8" customFormat="1">
       <c r="A174" s="38" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B174" s="7"/>
       <c r="E174" s="28"/>
@@ -23657,7 +24111,7 @@
       <c r="BO174" s="7"/>
       <c r="BP174" s="7"/>
     </row>
-    <row r="175" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="175" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A175" s="15" t="s">
         <v>2</v>
       </c>
@@ -23933,30 +24387,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="176" spans="1:92" s="5" customFormat="1" ht="75">
+    <row r="176" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A176" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B176" s="22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E176" s="40" t="s">
-        <v>343</v>
+        <v>340</v>
+      </c>
+      <c r="E176" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="I176" s="5" t="s">
         <v>3</v>
@@ -23972,43 +24426,43 @@
         <v>180</v>
       </c>
       <c r="N176" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="O176" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="O176" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="P176" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q176" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R176" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="R176" s="12"/>
       <c r="S176" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T176" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="U176" s="5" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="V176" s="5" t="s">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c r="W176" s="12" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="X176" s="12"/>
       <c r="Y176" s="12"/>
       <c r="Z176" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA176" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB176" s="42" t="s">
-        <v>335</v>
+        <v>3</v>
+      </c>
+      <c r="AA176" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB176" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="AC176" s="12" t="s">
         <v>3</v>
@@ -24105,12 +24559,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:92">
+    <row r="177" spans="1:101" s="11" customFormat="1">
+      <c r="A177" s="10"/>
+      <c r="B177" s="18"/>
       <c r="E177" s="31"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="K177" s="30"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="10"/>
+      <c r="Q177" s="31"/>
+      <c r="R177" s="31"/>
+      <c r="U177" s="10"/>
+      <c r="V177" s="10"/>
+      <c r="W177" s="10"/>
+      <c r="X177" s="10"/>
+      <c r="Y177" s="10"/>
+      <c r="Z177" s="10"/>
+      <c r="AA177" s="10"/>
+      <c r="AB177" s="10"/>
+      <c r="AC177" s="10"/>
+      <c r="AD177" s="10"/>
+      <c r="AE177" s="10"/>
+      <c r="AF177" s="10"/>
+      <c r="AG177" s="10"/>
+      <c r="AI177" s="10"/>
+      <c r="AJ177" s="10"/>
+      <c r="AK177" s="10"/>
+      <c r="AL177" s="10"/>
+      <c r="AM177" s="10"/>
+      <c r="AN177" s="10"/>
+      <c r="AO177" s="10"/>
+      <c r="AQ177" s="10"/>
+      <c r="AS177" s="10"/>
+      <c r="AT177" s="10"/>
+      <c r="AU177" s="10"/>
+      <c r="AV177" s="10"/>
+      <c r="AW177" s="10"/>
+      <c r="BG177" s="10"/>
+      <c r="BI177" s="10"/>
+      <c r="BJ177" s="10"/>
+      <c r="BK177" s="10"/>
+      <c r="BL177" s="10"/>
+      <c r="BM177" s="10"/>
+      <c r="BN177" s="10"/>
+      <c r="BO177" s="10"/>
+      <c r="BP177" s="10"/>
     </row>
-    <row r="178" spans="1:92" s="8" customFormat="1">
+    <row r="178" spans="1:101" s="8" customFormat="1">
       <c r="A178" s="38" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B178" s="7"/>
       <c r="E178" s="28"/>
@@ -24160,7 +24661,7 @@
       <c r="BO178" s="7"/>
       <c r="BP178" s="7"/>
     </row>
-    <row r="179" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="179" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A179" s="15" t="s">
         <v>2</v>
       </c>
@@ -24436,12 +24937,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="180" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="180" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A180" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B180" s="22" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C180" s="39" t="s">
         <v>156</v>
@@ -24459,7 +24960,7 @@
         <v>177</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="I180" s="5" t="s">
         <v>3</v>
@@ -24477,21 +24978,21 @@
       <c r="N180" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O180" s="12"/>
+      <c r="O180" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="P180" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q180" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R180" s="12" t="s">
-        <v>184</v>
-      </c>
+      <c r="R180" s="12"/>
       <c r="S180" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T180" s="5" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="U180" s="5" t="s">
         <v>249</v>
@@ -24608,12 +25109,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:92">
+    <row r="181" spans="1:101" s="11" customFormat="1">
+      <c r="A181" s="10"/>
+      <c r="B181" s="18"/>
       <c r="E181" s="31"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10"/>
+      <c r="O181" s="10"/>
+      <c r="P181" s="10"/>
+      <c r="Q181" s="31"/>
+      <c r="R181" s="31"/>
+      <c r="U181" s="10"/>
+      <c r="V181" s="10"/>
+      <c r="W181" s="10"/>
+      <c r="X181" s="10"/>
+      <c r="Y181" s="10"/>
+      <c r="Z181" s="10"/>
+      <c r="AA181" s="10"/>
+      <c r="AB181" s="10"/>
+      <c r="AC181" s="10"/>
+      <c r="AD181" s="10"/>
+      <c r="AE181" s="10"/>
+      <c r="AF181" s="10"/>
+      <c r="AG181" s="10"/>
+      <c r="AI181" s="10"/>
+      <c r="AJ181" s="10"/>
+      <c r="AK181" s="10"/>
+      <c r="AL181" s="10"/>
+      <c r="AM181" s="10"/>
+      <c r="AN181" s="10"/>
+      <c r="AO181" s="10"/>
+      <c r="AQ181" s="10"/>
+      <c r="AS181" s="10"/>
+      <c r="AT181" s="10"/>
+      <c r="AU181" s="10"/>
+      <c r="AV181" s="10"/>
+      <c r="AW181" s="10"/>
+      <c r="BG181" s="10"/>
+      <c r="BI181" s="10"/>
+      <c r="BJ181" s="10"/>
+      <c r="BK181" s="10"/>
+      <c r="BL181" s="10"/>
+      <c r="BM181" s="10"/>
+      <c r="BN181" s="10"/>
+      <c r="BO181" s="10"/>
+      <c r="BP181" s="10"/>
     </row>
-    <row r="182" spans="1:92" s="8" customFormat="1">
+    <row r="182" spans="1:101" s="8" customFormat="1">
       <c r="A182" s="38" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="B182" s="7"/>
       <c r="E182" s="28"/>
@@ -24663,7 +25211,7 @@
       <c r="BO182" s="7"/>
       <c r="BP182" s="7"/>
     </row>
-    <row r="183" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="183" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A183" s="15" t="s">
         <v>2</v>
       </c>
@@ -24939,30 +25487,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="184" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="184" spans="1:101" s="5" customFormat="1" ht="75">
       <c r="A184" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B184" s="22" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>7</v>
+        <v>321</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E184" s="19" t="s">
-        <v>287</v>
+        <v>334</v>
+      </c>
+      <c r="E184" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="I184" s="5" t="s">
         <v>3</v>
@@ -24978,43 +25526,43 @@
         <v>180</v>
       </c>
       <c r="N184" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O184" s="12" t="s">
-        <v>197</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O184" s="12"/>
       <c r="P184" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q184" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R184" s="12"/>
+      <c r="R184" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="S184" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T184" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U184" s="5" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="V184" s="5" t="s">
-        <v>181</v>
+        <v>339</v>
       </c>
       <c r="W184" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X184" s="12"/>
       <c r="Y184" s="12"/>
       <c r="Z184" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA184" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB184" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA184" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB184" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC184" s="12" t="s">
         <v>3</v>
@@ -25111,12 +25659,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:92">
+    <row r="185" spans="1:101" s="11" customFormat="1">
+      <c r="A185" s="10"/>
+      <c r="B185" s="18"/>
       <c r="E185" s="31"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="K185" s="30"/>
+      <c r="L185" s="10"/>
+      <c r="M185" s="10"/>
+      <c r="N185" s="10"/>
+      <c r="O185" s="10"/>
+      <c r="P185" s="10"/>
+      <c r="Q185" s="31"/>
+      <c r="R185" s="31"/>
+      <c r="U185" s="10"/>
+      <c r="V185" s="10"/>
+      <c r="W185" s="10"/>
+      <c r="X185" s="10"/>
+      <c r="Y185" s="10"/>
+      <c r="Z185" s="10"/>
+      <c r="AA185" s="10"/>
+      <c r="AB185" s="10"/>
+      <c r="AC185" s="10"/>
+      <c r="AD185" s="10"/>
+      <c r="AE185" s="10"/>
+      <c r="AF185" s="10"/>
+      <c r="AG185" s="10"/>
+      <c r="AI185" s="10"/>
+      <c r="AJ185" s="10"/>
+      <c r="AK185" s="10"/>
+      <c r="AL185" s="10"/>
+      <c r="AM185" s="10"/>
+      <c r="AN185" s="10"/>
+      <c r="AO185" s="10"/>
+      <c r="AQ185" s="10"/>
+      <c r="AS185" s="10"/>
+      <c r="AT185" s="10"/>
+      <c r="AU185" s="10"/>
+      <c r="AV185" s="10"/>
+      <c r="AW185" s="10"/>
+      <c r="BG185" s="10"/>
+      <c r="BI185" s="10"/>
+      <c r="BJ185" s="10"/>
+      <c r="BK185" s="10"/>
+      <c r="BL185" s="10"/>
+      <c r="BM185" s="10"/>
+      <c r="BN185" s="10"/>
+      <c r="BO185" s="10"/>
+      <c r="BP185" s="10"/>
     </row>
-    <row r="186" spans="1:92" s="8" customFormat="1">
+    <row r="186" spans="1:101" s="8" customFormat="1">
       <c r="A186" s="38" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="B186" s="7"/>
       <c r="E186" s="28"/>
@@ -25166,7 +25761,7 @@
       <c r="BO186" s="7"/>
       <c r="BP186" s="7"/>
     </row>
-    <row r="187" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="187" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A187" s="15" t="s">
         <v>2</v>
       </c>
@@ -25442,12 +26037,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="188" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="188" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A188" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="22" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="C188" s="39" t="s">
         <v>156</v>
@@ -25465,7 +26060,7 @@
         <v>177</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="I188" s="5" t="s">
         <v>3</v>
@@ -25483,21 +26078,21 @@
       <c r="N188" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O188" s="12" t="s">
-        <v>331</v>
-      </c>
+      <c r="O188" s="12"/>
       <c r="P188" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q188" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R188" s="12"/>
+      <c r="R188" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="S188" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T188" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="U188" s="5" t="s">
         <v>249</v>
@@ -25614,12 +26209,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:92">
+    <row r="189" spans="1:101" s="11" customFormat="1">
+      <c r="A189" s="10"/>
+      <c r="B189" s="18"/>
       <c r="E189" s="31"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="10"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="31"/>
+      <c r="R189" s="31"/>
+      <c r="U189" s="10"/>
+      <c r="V189" s="10"/>
+      <c r="W189" s="10"/>
+      <c r="X189" s="10"/>
+      <c r="Y189" s="10"/>
+      <c r="Z189" s="10"/>
+      <c r="AA189" s="10"/>
+      <c r="AB189" s="10"/>
+      <c r="AC189" s="10"/>
+      <c r="AD189" s="10"/>
+      <c r="AE189" s="10"/>
+      <c r="AF189" s="10"/>
+      <c r="AG189" s="10"/>
+      <c r="AI189" s="10"/>
+      <c r="AJ189" s="10"/>
+      <c r="AK189" s="10"/>
+      <c r="AL189" s="10"/>
+      <c r="AM189" s="10"/>
+      <c r="AN189" s="10"/>
+      <c r="AO189" s="10"/>
+      <c r="AQ189" s="10"/>
+      <c r="AS189" s="10"/>
+      <c r="AT189" s="10"/>
+      <c r="AU189" s="10"/>
+      <c r="AV189" s="10"/>
+      <c r="AW189" s="10"/>
+      <c r="BG189" s="10"/>
+      <c r="BI189" s="10"/>
+      <c r="BJ189" s="10"/>
+      <c r="BK189" s="10"/>
+      <c r="BL189" s="10"/>
+      <c r="BM189" s="10"/>
+      <c r="BN189" s="10"/>
+      <c r="BO189" s="10"/>
+      <c r="BP189" s="10"/>
     </row>
-    <row r="190" spans="1:92" s="8" customFormat="1">
+    <row r="190" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A190" s="38" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B190" s="7"/>
       <c r="E190" s="28"/>
@@ -25669,7 +26311,7 @@
       <c r="BO190" s="7"/>
       <c r="BP190" s="7"/>
     </row>
-    <row r="191" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="191" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A191" s="15" t="s">
         <v>2</v>
       </c>
@@ -25945,36 +26587,36 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:92" s="5" customFormat="1" ht="150">
+    <row r="192" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A192" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="22" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C192" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="E192" s="40" t="s">
-        <v>332</v>
+      <c r="D192" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E192" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="I192" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="K192" s="5" t="s">
         <v>178</v>
@@ -25984,15 +26626,17 @@
         <v>180</v>
       </c>
       <c r="N192" s="12" t="s">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="O192" s="12" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="P192" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q192" s="12"/>
+      <c r="Q192" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="R192" s="12"/>
       <c r="S192" s="5" t="s">
         <v>3</v>
@@ -26001,24 +26645,24 @@
         <v>198</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="V192" s="5" t="s">
-        <v>339</v>
+        <v>181</v>
       </c>
       <c r="W192" s="12" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="X192" s="12"/>
       <c r="Y192" s="12"/>
       <c r="Z192" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA192" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB192" s="42" t="s">
-        <v>335</v>
+        <v>3</v>
+      </c>
+      <c r="AA192" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB192" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="AC192" s="12" t="s">
         <v>3</v>
@@ -26115,12 +26759,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:92">
+    <row r="193" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A193" s="10"/>
+      <c r="B193" s="18"/>
       <c r="E193" s="31"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="31"/>
+      <c r="R193" s="31"/>
+      <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+      <c r="X193" s="10"/>
+      <c r="Y193" s="10"/>
+      <c r="Z193" s="10"/>
+      <c r="AA193" s="10"/>
+      <c r="AB193" s="10"/>
+      <c r="AC193" s="10"/>
+      <c r="AD193" s="10"/>
+      <c r="AE193" s="10"/>
+      <c r="AF193" s="10"/>
+      <c r="AG193" s="10"/>
+      <c r="AI193" s="10"/>
+      <c r="AJ193" s="10"/>
+      <c r="AK193" s="10"/>
+      <c r="AL193" s="10"/>
+      <c r="AM193" s="10"/>
+      <c r="AN193" s="10"/>
+      <c r="AO193" s="10"/>
+      <c r="AQ193" s="10"/>
+      <c r="AS193" s="10"/>
+      <c r="AT193" s="10"/>
+      <c r="AU193" s="10"/>
+      <c r="AV193" s="10"/>
+      <c r="AW193" s="10"/>
+      <c r="BG193" s="10"/>
+      <c r="BI193" s="10"/>
+      <c r="BJ193" s="10"/>
+      <c r="BK193" s="10"/>
+      <c r="BL193" s="10"/>
+      <c r="BM193" s="10"/>
+      <c r="BN193" s="10"/>
+      <c r="BO193" s="10"/>
+      <c r="BP193" s="10"/>
     </row>
-    <row r="194" spans="1:92" s="8" customFormat="1">
+    <row r="194" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A194" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B194" s="7"/>
       <c r="E194" s="28"/>
@@ -26170,7 +26861,7 @@
       <c r="BO194" s="7"/>
       <c r="BP194" s="7"/>
     </row>
-    <row r="195" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="195" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A195" s="15" t="s">
         <v>2</v>
       </c>
@@ -26446,12 +27137,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="196" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="196" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A196" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B196" s="22" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="C196" s="39" t="s">
         <v>156</v>
@@ -26469,7 +27160,7 @@
         <v>177</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="I196" s="5" t="s">
         <v>3</v>
@@ -26488,7 +27179,7 @@
         <v>3</v>
       </c>
       <c r="O196" s="12" t="s">
-        <v>197</v>
+        <v>331</v>
       </c>
       <c r="P196" s="12" t="s">
         <v>122</v>
@@ -26618,12 +27309,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:92">
+    <row r="197" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A197" s="10"/>
+      <c r="B197" s="18"/>
       <c r="E197" s="31"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="31"/>
+      <c r="R197" s="31"/>
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+      <c r="Z197" s="10"/>
+      <c r="AA197" s="10"/>
+      <c r="AB197" s="10"/>
+      <c r="AC197" s="10"/>
+      <c r="AD197" s="10"/>
+      <c r="AE197" s="10"/>
+      <c r="AF197" s="10"/>
+      <c r="AG197" s="10"/>
+      <c r="AI197" s="10"/>
+      <c r="AJ197" s="10"/>
+      <c r="AK197" s="10"/>
+      <c r="AL197" s="10"/>
+      <c r="AM197" s="10"/>
+      <c r="AN197" s="10"/>
+      <c r="AO197" s="10"/>
+      <c r="AQ197" s="10"/>
+      <c r="AS197" s="10"/>
+      <c r="AT197" s="10"/>
+      <c r="AU197" s="10"/>
+      <c r="AV197" s="10"/>
+      <c r="AW197" s="10"/>
+      <c r="BG197" s="10"/>
+      <c r="BI197" s="10"/>
+      <c r="BJ197" s="10"/>
+      <c r="BK197" s="10"/>
+      <c r="BL197" s="10"/>
+      <c r="BM197" s="10"/>
+      <c r="BN197" s="10"/>
+      <c r="BO197" s="10"/>
+      <c r="BP197" s="10"/>
     </row>
-    <row r="198" spans="1:92" s="8" customFormat="1">
+    <row r="198" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A198" s="38" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="B198" s="7"/>
       <c r="E198" s="28"/>
@@ -26673,7 +27411,7 @@
       <c r="BO198" s="7"/>
       <c r="BP198" s="7"/>
     </row>
-    <row r="199" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="199" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A199" s="15" t="s">
         <v>2</v>
       </c>
@@ -26949,84 +27687,80 @@
         <v>99</v>
       </c>
     </row>
-    <row r="200" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="200" spans="1:101" s="5" customFormat="1" ht="150">
       <c r="A200" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B200" s="22" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D200" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E200" s="19" t="s">
-        <v>175</v>
+      <c r="D200" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="E200" s="40" t="s">
+        <v>332</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="I200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="K200" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L200" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="L200" s="12"/>
       <c r="M200" s="12" t="s">
         <v>180</v>
       </c>
       <c r="N200" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="O200" s="12"/>
+        <v>323</v>
+      </c>
+      <c r="O200" s="12" t="s">
+        <v>331</v>
+      </c>
       <c r="P200" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q200" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="R200" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
       <c r="S200" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T200" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="U200" s="5" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="V200" s="5" t="s">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="W200" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X200" s="12"/>
       <c r="Y200" s="12"/>
       <c r="Z200" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA200" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB200" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA200" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB200" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC200" s="12" t="s">
         <v>3</v>
@@ -27123,12 +27857,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:92">
+    <row r="201" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A201" s="10"/>
+      <c r="B201" s="18"/>
       <c r="E201" s="31"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="K201" s="30"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="10"/>
+      <c r="N201" s="10"/>
+      <c r="O201" s="10"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="31"/>
+      <c r="R201" s="31"/>
+      <c r="U201" s="10"/>
+      <c r="V201" s="10"/>
+      <c r="W201" s="10"/>
+      <c r="X201" s="10"/>
+      <c r="Y201" s="10"/>
+      <c r="Z201" s="10"/>
+      <c r="AA201" s="10"/>
+      <c r="AB201" s="10"/>
+      <c r="AC201" s="10"/>
+      <c r="AD201" s="10"/>
+      <c r="AE201" s="10"/>
+      <c r="AF201" s="10"/>
+      <c r="AG201" s="10"/>
+      <c r="AI201" s="10"/>
+      <c r="AJ201" s="10"/>
+      <c r="AK201" s="10"/>
+      <c r="AL201" s="10"/>
+      <c r="AM201" s="10"/>
+      <c r="AN201" s="10"/>
+      <c r="AO201" s="10"/>
+      <c r="AQ201" s="10"/>
+      <c r="AS201" s="10"/>
+      <c r="AT201" s="10"/>
+      <c r="AU201" s="10"/>
+      <c r="AV201" s="10"/>
+      <c r="AW201" s="10"/>
+      <c r="BG201" s="10"/>
+      <c r="BI201" s="10"/>
+      <c r="BJ201" s="10"/>
+      <c r="BK201" s="10"/>
+      <c r="BL201" s="10"/>
+      <c r="BM201" s="10"/>
+      <c r="BN201" s="10"/>
+      <c r="BO201" s="10"/>
+      <c r="BP201" s="10"/>
     </row>
-    <row r="202" spans="1:92" s="8" customFormat="1">
+    <row r="202" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A202" s="38" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="B202" s="7"/>
       <c r="E202" s="28"/>
@@ -27178,7 +27959,7 @@
       <c r="BO202" s="7"/>
       <c r="BP202" s="7"/>
     </row>
-    <row r="203" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="203" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A203" s="15" t="s">
         <v>2</v>
       </c>
@@ -27454,12 +28235,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="204" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A204" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="22" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="C204" s="39" t="s">
         <v>156</v>
@@ -27468,7 +28249,7 @@
         <v>340</v>
       </c>
       <c r="E204" s="19" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>286</v>
@@ -27477,47 +28258,45 @@
         <v>177</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="I204" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K204" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L204" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="L204" s="12"/>
       <c r="M204" s="12" t="s">
         <v>180</v>
       </c>
       <c r="N204" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O204" s="12"/>
+      <c r="O204" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="P204" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q204" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R204" s="12" t="s">
-        <v>252</v>
-      </c>
+      <c r="R204" s="12"/>
       <c r="S204" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T204" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="U204" s="5" t="s">
         <v>249</v>
       </c>
       <c r="V204" s="5" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="W204" s="12" t="s">
         <v>228</v>
@@ -27628,12 +28407,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:92">
+    <row r="205" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A205" s="10"/>
+      <c r="B205" s="18"/>
       <c r="E205" s="31"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="K205" s="30"/>
+      <c r="L205" s="10"/>
+      <c r="M205" s="10"/>
+      <c r="N205" s="10"/>
+      <c r="O205" s="10"/>
+      <c r="P205" s="10"/>
+      <c r="Q205" s="31"/>
+      <c r="R205" s="31"/>
+      <c r="U205" s="10"/>
+      <c r="V205" s="10"/>
+      <c r="W205" s="10"/>
+      <c r="X205" s="10"/>
+      <c r="Y205" s="10"/>
+      <c r="Z205" s="10"/>
+      <c r="AA205" s="10"/>
+      <c r="AB205" s="10"/>
+      <c r="AC205" s="10"/>
+      <c r="AD205" s="10"/>
+      <c r="AE205" s="10"/>
+      <c r="AF205" s="10"/>
+      <c r="AG205" s="10"/>
+      <c r="AI205" s="10"/>
+      <c r="AJ205" s="10"/>
+      <c r="AK205" s="10"/>
+      <c r="AL205" s="10"/>
+      <c r="AM205" s="10"/>
+      <c r="AN205" s="10"/>
+      <c r="AO205" s="10"/>
+      <c r="AQ205" s="10"/>
+      <c r="AS205" s="10"/>
+      <c r="AT205" s="10"/>
+      <c r="AU205" s="10"/>
+      <c r="AV205" s="10"/>
+      <c r="AW205" s="10"/>
+      <c r="BG205" s="10"/>
+      <c r="BI205" s="10"/>
+      <c r="BJ205" s="10"/>
+      <c r="BK205" s="10"/>
+      <c r="BL205" s="10"/>
+      <c r="BM205" s="10"/>
+      <c r="BN205" s="10"/>
+      <c r="BO205" s="10"/>
+      <c r="BP205" s="10"/>
     </row>
-    <row r="206" spans="1:92" s="8" customFormat="1">
+    <row r="206" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A206" s="38" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B206" s="7"/>
       <c r="E206" s="28"/>
@@ -27683,7 +28509,7 @@
       <c r="BO206" s="7"/>
       <c r="BP206" s="7"/>
     </row>
-    <row r="207" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="207" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A207" s="15" t="s">
         <v>2</v>
       </c>
@@ -27959,30 +28785,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="208" spans="1:92" s="5" customFormat="1" ht="60">
+    <row r="208" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A208" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B208" s="22" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E208" s="40" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="E208" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="I208" s="5" t="s">
         <v>3</v>
@@ -28019,24 +28845,24 @@
         <v>185</v>
       </c>
       <c r="U208" s="5" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="V208" s="5" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="W208" s="12" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="X208" s="12"/>
       <c r="Y208" s="12"/>
       <c r="Z208" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA208" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB208" s="42" t="s">
-        <v>335</v>
+        <v>3</v>
+      </c>
+      <c r="AA208" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB208" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="AC208" s="12" t="s">
         <v>3</v>
@@ -28133,12 +28959,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:92">
+    <row r="209" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A209" s="10"/>
+      <c r="B209" s="18"/>
       <c r="E209" s="31"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="K209" s="30"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="10"/>
+      <c r="N209" s="10"/>
+      <c r="O209" s="10"/>
+      <c r="P209" s="10"/>
+      <c r="Q209" s="31"/>
+      <c r="R209" s="31"/>
+      <c r="U209" s="10"/>
+      <c r="V209" s="10"/>
+      <c r="W209" s="10"/>
+      <c r="X209" s="10"/>
+      <c r="Y209" s="10"/>
+      <c r="Z209" s="10"/>
+      <c r="AA209" s="10"/>
+      <c r="AB209" s="10"/>
+      <c r="AC209" s="10"/>
+      <c r="AD209" s="10"/>
+      <c r="AE209" s="10"/>
+      <c r="AF209" s="10"/>
+      <c r="AG209" s="10"/>
+      <c r="AI209" s="10"/>
+      <c r="AJ209" s="10"/>
+      <c r="AK209" s="10"/>
+      <c r="AL209" s="10"/>
+      <c r="AM209" s="10"/>
+      <c r="AN209" s="10"/>
+      <c r="AO209" s="10"/>
+      <c r="AQ209" s="10"/>
+      <c r="AS209" s="10"/>
+      <c r="AT209" s="10"/>
+      <c r="AU209" s="10"/>
+      <c r="AV209" s="10"/>
+      <c r="AW209" s="10"/>
+      <c r="BG209" s="10"/>
+      <c r="BI209" s="10"/>
+      <c r="BJ209" s="10"/>
+      <c r="BK209" s="10"/>
+      <c r="BL209" s="10"/>
+      <c r="BM209" s="10"/>
+      <c r="BN209" s="10"/>
+      <c r="BO209" s="10"/>
+      <c r="BP209" s="10"/>
     </row>
-    <row r="210" spans="1:92" s="8" customFormat="1">
+    <row r="210" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A210" s="38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B210" s="7"/>
       <c r="E210" s="28"/>
@@ -28188,7 +29061,7 @@
       <c r="BO210" s="7"/>
       <c r="BP210" s="7"/>
     </row>
-    <row r="211" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="211" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A211" s="15" t="s">
         <v>2</v>
       </c>
@@ -28464,12 +29337,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="212" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="212" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A212" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="C212" s="39" t="s">
         <v>156</v>
@@ -28487,7 +29360,7 @@
         <v>177</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="I212" s="5" t="s">
         <v>3</v>
@@ -28638,12 +29511,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:92">
+    <row r="213" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A213" s="10"/>
+      <c r="B213" s="18"/>
       <c r="E213" s="31"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="K213" s="30"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="10"/>
+      <c r="N213" s="10"/>
+      <c r="O213" s="10"/>
+      <c r="P213" s="10"/>
+      <c r="Q213" s="31"/>
+      <c r="R213" s="31"/>
+      <c r="U213" s="10"/>
+      <c r="V213" s="10"/>
+      <c r="W213" s="10"/>
+      <c r="X213" s="10"/>
+      <c r="Y213" s="10"/>
+      <c r="Z213" s="10"/>
+      <c r="AA213" s="10"/>
+      <c r="AB213" s="10"/>
+      <c r="AC213" s="10"/>
+      <c r="AD213" s="10"/>
+      <c r="AE213" s="10"/>
+      <c r="AF213" s="10"/>
+      <c r="AG213" s="10"/>
+      <c r="AI213" s="10"/>
+      <c r="AJ213" s="10"/>
+      <c r="AK213" s="10"/>
+      <c r="AL213" s="10"/>
+      <c r="AM213" s="10"/>
+      <c r="AN213" s="10"/>
+      <c r="AO213" s="10"/>
+      <c r="AQ213" s="10"/>
+      <c r="AS213" s="10"/>
+      <c r="AT213" s="10"/>
+      <c r="AU213" s="10"/>
+      <c r="AV213" s="10"/>
+      <c r="AW213" s="10"/>
+      <c r="BG213" s="10"/>
+      <c r="BI213" s="10"/>
+      <c r="BJ213" s="10"/>
+      <c r="BK213" s="10"/>
+      <c r="BL213" s="10"/>
+      <c r="BM213" s="10"/>
+      <c r="BN213" s="10"/>
+      <c r="BO213" s="10"/>
+      <c r="BP213" s="10"/>
     </row>
-    <row r="214" spans="1:92" s="8" customFormat="1">
+    <row r="214" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A214" s="38" t="s">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="B214" s="7"/>
       <c r="E214" s="28"/>
@@ -28693,7 +29613,7 @@
       <c r="BO214" s="7"/>
       <c r="BP214" s="7"/>
     </row>
-    <row r="215" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="215" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A215" s="15" t="s">
         <v>2</v>
       </c>
@@ -28704,13 +29624,13 @@
         <v>17</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>308</v>
+        <v>110</v>
       </c>
       <c r="G215" s="13" t="s">
         <v>115</v>
@@ -28969,24 +29889,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="216" spans="1:101" s="5" customFormat="1" ht="60">
       <c r="A216" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B216" s="22" t="s">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="E216" s="19" t="s">
-        <v>3</v>
+        <v>321</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E216" s="40" t="s">
+        <v>344</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>177</v>
@@ -29004,7 +29924,7 @@
         <v>178</v>
       </c>
       <c r="L216" s="12" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="M216" s="12" t="s">
         <v>180</v>
@@ -29029,24 +29949,24 @@
         <v>185</v>
       </c>
       <c r="U216" s="5" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="V216" s="5" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="W216" s="12" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="X216" s="12"/>
       <c r="Y216" s="12"/>
       <c r="Z216" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA216" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB216" s="12" t="s">
-        <v>3</v>
+        <v>336</v>
+      </c>
+      <c r="AA216" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB216" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="AC216" s="12" t="s">
         <v>3</v>
@@ -29143,12 +30063,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:92">
+    <row r="217" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A217" s="10"/>
+      <c r="B217" s="18"/>
       <c r="E217" s="31"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="K217" s="30"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="10"/>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="31"/>
+      <c r="R217" s="31"/>
+      <c r="U217" s="10"/>
+      <c r="V217" s="10"/>
+      <c r="W217" s="10"/>
+      <c r="X217" s="10"/>
+      <c r="Y217" s="10"/>
+      <c r="Z217" s="10"/>
+      <c r="AA217" s="10"/>
+      <c r="AB217" s="10"/>
+      <c r="AC217" s="10"/>
+      <c r="AD217" s="10"/>
+      <c r="AE217" s="10"/>
+      <c r="AF217" s="10"/>
+      <c r="AG217" s="10"/>
+      <c r="AI217" s="10"/>
+      <c r="AJ217" s="10"/>
+      <c r="AK217" s="10"/>
+      <c r="AL217" s="10"/>
+      <c r="AM217" s="10"/>
+      <c r="AN217" s="10"/>
+      <c r="AO217" s="10"/>
+      <c r="AQ217" s="10"/>
+      <c r="AS217" s="10"/>
+      <c r="AT217" s="10"/>
+      <c r="AU217" s="10"/>
+      <c r="AV217" s="10"/>
+      <c r="AW217" s="10"/>
+      <c r="BG217" s="10"/>
+      <c r="BI217" s="10"/>
+      <c r="BJ217" s="10"/>
+      <c r="BK217" s="10"/>
+      <c r="BL217" s="10"/>
+      <c r="BM217" s="10"/>
+      <c r="BN217" s="10"/>
+      <c r="BO217" s="10"/>
+      <c r="BP217" s="10"/>
     </row>
-    <row r="218" spans="1:92" s="8" customFormat="1">
+    <row r="218" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A218" s="38" t="s">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="B218" s="7"/>
       <c r="E218" s="28"/>
@@ -29198,7 +30165,7 @@
       <c r="BO218" s="7"/>
       <c r="BP218" s="7"/>
     </row>
-    <row r="219" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="219" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A219" s="15" t="s">
         <v>2</v>
       </c>
@@ -29209,13 +30176,13 @@
         <v>17</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>308</v>
+        <v>110</v>
       </c>
       <c r="G219" s="13" t="s">
         <v>115</v>
@@ -29474,24 +30441,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="220" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A220" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B220" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="C220" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" s="20" t="s">
-        <v>311</v>
+        <v>213</v>
+      </c>
+      <c r="C220" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>177</v>
@@ -29537,7 +30504,7 @@
         <v>249</v>
       </c>
       <c r="V220" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="W220" s="12" t="s">
         <v>228</v>
@@ -29648,12 +30615,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:92">
+    <row r="221" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A221" s="10"/>
+      <c r="B221" s="18"/>
       <c r="E221" s="31"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="K221" s="30"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="31"/>
+      <c r="R221" s="31"/>
+      <c r="U221" s="10"/>
+      <c r="V221" s="10"/>
+      <c r="W221" s="10"/>
+      <c r="X221" s="10"/>
+      <c r="Y221" s="10"/>
+      <c r="Z221" s="10"/>
+      <c r="AA221" s="10"/>
+      <c r="AB221" s="10"/>
+      <c r="AC221" s="10"/>
+      <c r="AD221" s="10"/>
+      <c r="AE221" s="10"/>
+      <c r="AF221" s="10"/>
+      <c r="AG221" s="10"/>
+      <c r="AI221" s="10"/>
+      <c r="AJ221" s="10"/>
+      <c r="AK221" s="10"/>
+      <c r="AL221" s="10"/>
+      <c r="AM221" s="10"/>
+      <c r="AN221" s="10"/>
+      <c r="AO221" s="10"/>
+      <c r="AQ221" s="10"/>
+      <c r="AS221" s="10"/>
+      <c r="AT221" s="10"/>
+      <c r="AU221" s="10"/>
+      <c r="AV221" s="10"/>
+      <c r="AW221" s="10"/>
+      <c r="BG221" s="10"/>
+      <c r="BI221" s="10"/>
+      <c r="BJ221" s="10"/>
+      <c r="BK221" s="10"/>
+      <c r="BL221" s="10"/>
+      <c r="BM221" s="10"/>
+      <c r="BN221" s="10"/>
+      <c r="BO221" s="10"/>
+      <c r="BP221" s="10"/>
     </row>
-    <row r="222" spans="1:92" s="8" customFormat="1">
+    <row r="222" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A222" s="38" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B222" s="7"/>
       <c r="E222" s="28"/>
@@ -29703,7 +30717,7 @@
       <c r="BO222" s="7"/>
       <c r="BP222" s="7"/>
     </row>
-    <row r="223" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="223" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A223" s="15" t="s">
         <v>2</v>
       </c>
@@ -29714,13 +30728,13 @@
         <v>17</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="G223" s="13" t="s">
         <v>115</v>
@@ -29768,7 +30782,7 @@
         <v>27</v>
       </c>
       <c r="V223" s="16" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="W223" s="16" t="s">
         <v>28</v>
@@ -29979,24 +30993,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="224" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="224" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A224" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="5" t="s">
-        <v>340</v>
+      <c r="D224" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="E224" s="19" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>177</v>
@@ -30042,7 +31056,7 @@
         <v>249</v>
       </c>
       <c r="V224" s="5" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="W224" s="12" t="s">
         <v>228</v>
@@ -30153,12 +31167,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:92">
+    <row r="225" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A225" s="10"/>
+      <c r="B225" s="18"/>
       <c r="E225" s="31"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="K225" s="30"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="10"/>
+      <c r="N225" s="10"/>
+      <c r="O225" s="10"/>
+      <c r="P225" s="10"/>
+      <c r="Q225" s="31"/>
+      <c r="R225" s="31"/>
+      <c r="U225" s="10"/>
+      <c r="V225" s="10"/>
+      <c r="W225" s="10"/>
+      <c r="X225" s="10"/>
+      <c r="Y225" s="10"/>
+      <c r="Z225" s="10"/>
+      <c r="AA225" s="10"/>
+      <c r="AB225" s="10"/>
+      <c r="AC225" s="10"/>
+      <c r="AD225" s="10"/>
+      <c r="AE225" s="10"/>
+      <c r="AF225" s="10"/>
+      <c r="AG225" s="10"/>
+      <c r="AI225" s="10"/>
+      <c r="AJ225" s="10"/>
+      <c r="AK225" s="10"/>
+      <c r="AL225" s="10"/>
+      <c r="AM225" s="10"/>
+      <c r="AN225" s="10"/>
+      <c r="AO225" s="10"/>
+      <c r="AQ225" s="10"/>
+      <c r="AS225" s="10"/>
+      <c r="AT225" s="10"/>
+      <c r="AU225" s="10"/>
+      <c r="AV225" s="10"/>
+      <c r="AW225" s="10"/>
+      <c r="BG225" s="10"/>
+      <c r="BI225" s="10"/>
+      <c r="BJ225" s="10"/>
+      <c r="BK225" s="10"/>
+      <c r="BL225" s="10"/>
+      <c r="BM225" s="10"/>
+      <c r="BN225" s="10"/>
+      <c r="BO225" s="10"/>
+      <c r="BP225" s="10"/>
     </row>
-    <row r="226" spans="1:92" s="8" customFormat="1">
+    <row r="226" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A226" s="38" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B226" s="7"/>
       <c r="E226" s="28"/>
@@ -30208,7 +31269,7 @@
       <c r="BO226" s="7"/>
       <c r="BP226" s="7"/>
     </row>
-    <row r="227" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="227" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A227" s="15" t="s">
         <v>2</v>
       </c>
@@ -30219,13 +31280,13 @@
         <v>17</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="G227" s="13" t="s">
         <v>115</v>
@@ -30273,7 +31334,7 @@
         <v>27</v>
       </c>
       <c r="V227" s="16" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="W227" s="16" t="s">
         <v>28</v>
@@ -30484,24 +31545,24 @@
         <v>99</v>
       </c>
     </row>
-    <row r="228" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="228" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A228" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B228" s="22" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="5" t="s">
-        <v>340</v>
+      <c r="D228" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>177</v>
@@ -30547,7 +31608,7 @@
         <v>249</v>
       </c>
       <c r="V228" s="5" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="W228" s="12" t="s">
         <v>228</v>
@@ -30658,12 +31719,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:92">
+    <row r="229" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A229" s="10"/>
+      <c r="B229" s="18"/>
       <c r="E229" s="31"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="K229" s="30"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="10"/>
+      <c r="N229" s="10"/>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="31"/>
+      <c r="R229" s="31"/>
+      <c r="U229" s="10"/>
+      <c r="V229" s="10"/>
+      <c r="W229" s="10"/>
+      <c r="X229" s="10"/>
+      <c r="Y229" s="10"/>
+      <c r="Z229" s="10"/>
+      <c r="AA229" s="10"/>
+      <c r="AB229" s="10"/>
+      <c r="AC229" s="10"/>
+      <c r="AD229" s="10"/>
+      <c r="AE229" s="10"/>
+      <c r="AF229" s="10"/>
+      <c r="AG229" s="10"/>
+      <c r="AI229" s="10"/>
+      <c r="AJ229" s="10"/>
+      <c r="AK229" s="10"/>
+      <c r="AL229" s="10"/>
+      <c r="AM229" s="10"/>
+      <c r="AN229" s="10"/>
+      <c r="AO229" s="10"/>
+      <c r="AQ229" s="10"/>
+      <c r="AS229" s="10"/>
+      <c r="AT229" s="10"/>
+      <c r="AU229" s="10"/>
+      <c r="AV229" s="10"/>
+      <c r="AW229" s="10"/>
+      <c r="BG229" s="10"/>
+      <c r="BI229" s="10"/>
+      <c r="BJ229" s="10"/>
+      <c r="BK229" s="10"/>
+      <c r="BL229" s="10"/>
+      <c r="BM229" s="10"/>
+      <c r="BN229" s="10"/>
+      <c r="BO229" s="10"/>
+      <c r="BP229" s="10"/>
     </row>
-    <row r="230" spans="1:92" s="8" customFormat="1">
+    <row r="230" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A230" s="38" t="s">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="B230" s="7"/>
       <c r="E230" s="28"/>
@@ -30713,7 +31821,7 @@
       <c r="BO230" s="7"/>
       <c r="BP230" s="7"/>
     </row>
-    <row r="231" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="231" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A231" s="15" t="s">
         <v>2</v>
       </c>
@@ -30778,7 +31886,7 @@
         <v>27</v>
       </c>
       <c r="V231" s="16" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="W231" s="16" t="s">
         <v>28</v>
@@ -30989,12 +32097,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="232" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="232" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A232" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B232" s="22" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>7</v>
@@ -31003,7 +32111,7 @@
         <v>340</v>
       </c>
       <c r="E232" s="19" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>285</v>
@@ -31012,45 +32120,47 @@
         <v>177</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="I232" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J232" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K232" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L232" s="12"/>
+      <c r="L232" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="M232" s="12" t="s">
         <v>180</v>
       </c>
       <c r="N232" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O232" s="12" t="s">
-        <v>197</v>
-      </c>
+      <c r="O232" s="12"/>
       <c r="P232" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q232" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R232" s="12"/>
+      <c r="R232" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="S232" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T232" s="5" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="U232" s="5" t="s">
         <v>249</v>
       </c>
       <c r="V232" s="5" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="W232" s="12" t="s">
         <v>228</v>
@@ -31161,12 +32271,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:92">
+    <row r="233" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A233" s="10"/>
+      <c r="B233" s="18"/>
       <c r="E233" s="31"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="K233" s="30"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="31"/>
+      <c r="R233" s="31"/>
+      <c r="U233" s="10"/>
+      <c r="V233" s="10"/>
+      <c r="W233" s="10"/>
+      <c r="X233" s="10"/>
+      <c r="Y233" s="10"/>
+      <c r="Z233" s="10"/>
+      <c r="AA233" s="10"/>
+      <c r="AB233" s="10"/>
+      <c r="AC233" s="10"/>
+      <c r="AD233" s="10"/>
+      <c r="AE233" s="10"/>
+      <c r="AF233" s="10"/>
+      <c r="AG233" s="10"/>
+      <c r="AI233" s="10"/>
+      <c r="AJ233" s="10"/>
+      <c r="AK233" s="10"/>
+      <c r="AL233" s="10"/>
+      <c r="AM233" s="10"/>
+      <c r="AN233" s="10"/>
+      <c r="AO233" s="10"/>
+      <c r="AQ233" s="10"/>
+      <c r="AS233" s="10"/>
+      <c r="AT233" s="10"/>
+      <c r="AU233" s="10"/>
+      <c r="AV233" s="10"/>
+      <c r="AW233" s="10"/>
+      <c r="BG233" s="10"/>
+      <c r="BI233" s="10"/>
+      <c r="BJ233" s="10"/>
+      <c r="BK233" s="10"/>
+      <c r="BL233" s="10"/>
+      <c r="BM233" s="10"/>
+      <c r="BN233" s="10"/>
+      <c r="BO233" s="10"/>
+      <c r="BP233" s="10"/>
     </row>
-    <row r="234" spans="1:92" s="8" customFormat="1">
+    <row r="234" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A234" s="38" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="B234" s="7"/>
       <c r="E234" s="28"/>
@@ -31216,7 +32373,7 @@
       <c r="BO234" s="7"/>
       <c r="BP234" s="7"/>
     </row>
-    <row r="235" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="235" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A235" s="15" t="s">
         <v>2</v>
       </c>
@@ -31281,7 +32438,7 @@
         <v>27</v>
       </c>
       <c r="V235" s="16" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="W235" s="16" t="s">
         <v>28</v>
@@ -31492,68 +32649,70 @@
         <v>99</v>
       </c>
     </row>
-    <row r="236" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="236" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A236" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B236" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="C236" s="39" t="s">
-        <v>156</v>
+        <v>319</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>340</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>288</v>
+        <v>175</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="I236" s="5" t="s">
         <v>3</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K236" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L236" s="12"/>
+      <c r="L236" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="M236" s="12" t="s">
         <v>180</v>
       </c>
       <c r="N236" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O236" s="12" t="s">
-        <v>197</v>
-      </c>
+      <c r="O236" s="12"/>
       <c r="P236" s="12" t="s">
         <v>122</v>
       </c>
       <c r="Q236" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="R236" s="12"/>
+      <c r="R236" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="S236" s="5" t="s">
         <v>3</v>
       </c>
       <c r="T236" s="5" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="U236" s="5" t="s">
         <v>249</v>
       </c>
       <c r="V236" s="5" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="W236" s="12" t="s">
         <v>228</v>
@@ -31664,12 +32823,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:92">
+    <row r="237" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A237" s="10"/>
+      <c r="B237" s="18"/>
       <c r="E237" s="31"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="K237" s="30"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="10"/>
+      <c r="N237" s="10"/>
+      <c r="O237" s="10"/>
+      <c r="P237" s="10"/>
+      <c r="Q237" s="31"/>
+      <c r="R237" s="31"/>
+      <c r="U237" s="10"/>
+      <c r="V237" s="10"/>
+      <c r="W237" s="10"/>
+      <c r="X237" s="10"/>
+      <c r="Y237" s="10"/>
+      <c r="Z237" s="10"/>
+      <c r="AA237" s="10"/>
+      <c r="AB237" s="10"/>
+      <c r="AC237" s="10"/>
+      <c r="AD237" s="10"/>
+      <c r="AE237" s="10"/>
+      <c r="AF237" s="10"/>
+      <c r="AG237" s="10"/>
+      <c r="AI237" s="10"/>
+      <c r="AJ237" s="10"/>
+      <c r="AK237" s="10"/>
+      <c r="AL237" s="10"/>
+      <c r="AM237" s="10"/>
+      <c r="AN237" s="10"/>
+      <c r="AO237" s="10"/>
+      <c r="AQ237" s="10"/>
+      <c r="AS237" s="10"/>
+      <c r="AT237" s="10"/>
+      <c r="AU237" s="10"/>
+      <c r="AV237" s="10"/>
+      <c r="AW237" s="10"/>
+      <c r="BG237" s="10"/>
+      <c r="BI237" s="10"/>
+      <c r="BJ237" s="10"/>
+      <c r="BK237" s="10"/>
+      <c r="BL237" s="10"/>
+      <c r="BM237" s="10"/>
+      <c r="BN237" s="10"/>
+      <c r="BO237" s="10"/>
+      <c r="BP237" s="10"/>
     </row>
-    <row r="238" spans="1:92" s="8" customFormat="1">
+    <row r="238" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A238" s="38" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B238" s="7"/>
       <c r="E238" s="28"/>
@@ -31719,7 +32925,7 @@
       <c r="BO238" s="7"/>
       <c r="BP238" s="7"/>
     </row>
-    <row r="239" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="239" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A239" s="15" t="s">
         <v>2</v>
       </c>
@@ -31995,30 +33201,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="240" spans="1:92" s="5" customFormat="1" ht="75">
+    <row r="240" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A240" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B240" s="22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C240" s="21" t="s">
-        <v>321</v>
+        <v>7</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E240" s="40" t="s">
-        <v>345</v>
+        <v>340</v>
+      </c>
+      <c r="E240" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="I240" s="5" t="s">
         <v>3</v>
@@ -32029,17 +33235,15 @@
       <c r="K240" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="L240" s="12" t="s">
-        <v>347</v>
-      </c>
+      <c r="L240" s="12"/>
       <c r="M240" s="12" t="s">
         <v>180</v>
       </c>
       <c r="N240" s="12" t="s">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="O240" s="12" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="P240" s="12" t="s">
         <v>122</v>
@@ -32055,24 +33259,24 @@
         <v>203</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="V240" s="5" t="s">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="W240" s="12" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="X240" s="12"/>
       <c r="Y240" s="12"/>
       <c r="Z240" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA240" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB240" s="42" t="s">
-        <v>335</v>
+        <v>3</v>
+      </c>
+      <c r="AA240" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB240" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="AC240" s="12" t="s">
         <v>3</v>
@@ -32169,12 +33373,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:92">
+    <row r="241" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A241" s="10"/>
+      <c r="B241" s="18"/>
       <c r="E241" s="31"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="K241" s="30"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="31"/>
+      <c r="R241" s="31"/>
+      <c r="U241" s="10"/>
+      <c r="V241" s="10"/>
+      <c r="W241" s="10"/>
+      <c r="X241" s="10"/>
+      <c r="Y241" s="10"/>
+      <c r="Z241" s="10"/>
+      <c r="AA241" s="10"/>
+      <c r="AB241" s="10"/>
+      <c r="AC241" s="10"/>
+      <c r="AD241" s="10"/>
+      <c r="AE241" s="10"/>
+      <c r="AF241" s="10"/>
+      <c r="AG241" s="10"/>
+      <c r="AI241" s="10"/>
+      <c r="AJ241" s="10"/>
+      <c r="AK241" s="10"/>
+      <c r="AL241" s="10"/>
+      <c r="AM241" s="10"/>
+      <c r="AN241" s="10"/>
+      <c r="AO241" s="10"/>
+      <c r="AQ241" s="10"/>
+      <c r="AS241" s="10"/>
+      <c r="AT241" s="10"/>
+      <c r="AU241" s="10"/>
+      <c r="AV241" s="10"/>
+      <c r="AW241" s="10"/>
+      <c r="BG241" s="10"/>
+      <c r="BI241" s="10"/>
+      <c r="BJ241" s="10"/>
+      <c r="BK241" s="10"/>
+      <c r="BL241" s="10"/>
+      <c r="BM241" s="10"/>
+      <c r="BN241" s="10"/>
+      <c r="BO241" s="10"/>
+      <c r="BP241" s="10"/>
     </row>
-    <row r="242" spans="1:92" s="8" customFormat="1">
+    <row r="242" spans="1:101" s="8" customFormat="1" ht="409.6">
       <c r="A242" s="38" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="B242" s="7"/>
       <c r="E242" s="28"/>
@@ -32224,7 +33475,7 @@
       <c r="BO242" s="7"/>
       <c r="BP242" s="7"/>
     </row>
-    <row r="243" spans="1:92" s="9" customFormat="1" ht="38.25">
+    <row r="243" spans="1:101" s="9" customFormat="1" ht="38.25">
       <c r="A243" s="15" t="s">
         <v>2</v>
       </c>
@@ -32500,12 +33751,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="244" spans="1:92" s="5" customFormat="1" ht="38.25">
+    <row r="244" spans="1:101" s="5" customFormat="1" ht="38.25">
       <c r="A244" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="22" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="C244" s="39" t="s">
         <v>156</v>
@@ -32523,7 +33774,7 @@
         <v>177</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="I244" s="5" t="s">
         <v>3</v>
@@ -32672,305 +33923,1507 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:92">
+    <row r="245" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A245" s="10"/>
+      <c r="B245" s="18"/>
       <c r="E245" s="31"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+      <c r="K245" s="30"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="31"/>
+      <c r="R245" s="31"/>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
+      <c r="W245" s="10"/>
+      <c r="X245" s="10"/>
+      <c r="Y245" s="10"/>
+      <c r="Z245" s="10"/>
+      <c r="AA245" s="10"/>
+      <c r="AB245" s="10"/>
+      <c r="AC245" s="10"/>
+      <c r="AD245" s="10"/>
+      <c r="AE245" s="10"/>
+      <c r="AF245" s="10"/>
+      <c r="AG245" s="10"/>
+      <c r="AI245" s="10"/>
+      <c r="AJ245" s="10"/>
+      <c r="AK245" s="10"/>
+      <c r="AL245" s="10"/>
+      <c r="AM245" s="10"/>
+      <c r="AN245" s="10"/>
+      <c r="AO245" s="10"/>
+      <c r="AQ245" s="10"/>
+      <c r="AS245" s="10"/>
+      <c r="AT245" s="10"/>
+      <c r="AU245" s="10"/>
+      <c r="AV245" s="10"/>
+      <c r="AW245" s="10"/>
+      <c r="BG245" s="10"/>
+      <c r="BI245" s="10"/>
+      <c r="BJ245" s="10"/>
+      <c r="BK245" s="10"/>
+      <c r="BL245" s="10"/>
+      <c r="BM245" s="10"/>
+      <c r="BN245" s="10"/>
+      <c r="BO245" s="10"/>
+      <c r="BP245" s="10"/>
     </row>
-    <row r="246" spans="1:92">
-      <c r="E246" s="31"/>
+    <row r="246" spans="1:101" s="8" customFormat="1" ht="409.6">
+      <c r="A246" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B246" s="7"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="K246" s="20"/>
+      <c r="L246" s="7"/>
+      <c r="M246" s="7"/>
+      <c r="N246" s="7"/>
+      <c r="O246" s="7"/>
+      <c r="P246" s="7"/>
+      <c r="Q246" s="28"/>
+      <c r="R246" s="28"/>
+      <c r="U246" s="7"/>
+      <c r="V246" s="7"/>
+      <c r="W246" s="7"/>
+      <c r="X246" s="7"/>
+      <c r="Y246" s="7"/>
+      <c r="Z246" s="7"/>
+      <c r="AA246" s="7"/>
+      <c r="AB246" s="7"/>
+      <c r="AC246" s="7"/>
+      <c r="AD246" s="7"/>
+      <c r="AE246" s="7"/>
+      <c r="AF246" s="7"/>
+      <c r="AG246" s="7"/>
+      <c r="AI246" s="7"/>
+      <c r="AJ246" s="7"/>
+      <c r="AK246" s="7"/>
+      <c r="AL246" s="7"/>
+      <c r="AM246" s="7"/>
+      <c r="AN246" s="7"/>
+      <c r="AO246" s="7"/>
+      <c r="AQ246" s="7"/>
+      <c r="AS246" s="7"/>
+      <c r="AT246" s="7"/>
+      <c r="AU246" s="7"/>
+      <c r="AV246" s="7"/>
+      <c r="AW246" s="7"/>
+      <c r="BG246" s="7"/>
+      <c r="BI246" s="7"/>
+      <c r="BJ246" s="7"/>
+      <c r="BK246" s="7"/>
+      <c r="BL246" s="7"/>
+      <c r="BM246" s="7"/>
+      <c r="BN246" s="7"/>
+      <c r="BO246" s="7"/>
+      <c r="BP246" s="7"/>
     </row>
-    <row r="247" spans="1:92" s="26" customFormat="1">
-      <c r="A247" s="23"/>
-      <c r="B247" s="24"/>
-      <c r="C247" s="23"/>
-      <c r="D247" s="23"/>
-      <c r="E247" s="25"/>
-      <c r="F247" s="23"/>
-      <c r="G247" s="23"/>
-      <c r="H247" s="23"/>
-      <c r="I247" s="23"/>
-      <c r="J247" s="23"/>
-      <c r="K247" s="23"/>
-      <c r="L247" s="25"/>
-      <c r="M247" s="25"/>
-      <c r="N247" s="25"/>
-      <c r="O247" s="25"/>
-      <c r="P247" s="25"/>
-      <c r="Q247" s="25"/>
-      <c r="R247" s="25"/>
-      <c r="S247" s="23"/>
-      <c r="T247" s="23"/>
-      <c r="U247" s="25"/>
-      <c r="V247" s="25"/>
-      <c r="W247" s="25"/>
-      <c r="X247" s="25"/>
-      <c r="Y247" s="25"/>
-      <c r="Z247" s="25"/>
-      <c r="AA247" s="25"/>
-      <c r="AB247" s="25"/>
-      <c r="AC247" s="25"/>
-      <c r="AD247" s="25"/>
-      <c r="AE247" s="25"/>
-      <c r="AF247" s="25"/>
-      <c r="AG247" s="25"/>
-      <c r="AI247" s="23"/>
-      <c r="AJ247" s="23"/>
-      <c r="AK247" s="23"/>
-      <c r="AL247" s="23"/>
-      <c r="AM247" s="23"/>
-      <c r="AN247" s="25"/>
-      <c r="AO247" s="23"/>
-      <c r="AQ247" s="23"/>
-      <c r="AR247" s="23"/>
-      <c r="AS247" s="25"/>
-      <c r="AT247" s="23"/>
-      <c r="AU247" s="23"/>
-      <c r="AV247" s="23"/>
-      <c r="AW247" s="23"/>
-      <c r="AX247" s="23"/>
-      <c r="AY247" s="23"/>
-      <c r="AZ247" s="23"/>
-      <c r="BA247" s="25"/>
-      <c r="BB247" s="25"/>
-      <c r="BC247" s="25"/>
-      <c r="BD247" s="23"/>
-      <c r="BE247" s="23"/>
-      <c r="BF247" s="23"/>
-      <c r="BG247" s="23"/>
-      <c r="BH247" s="23"/>
-      <c r="BI247" s="23"/>
-      <c r="BJ247" s="23"/>
-      <c r="BK247" s="23"/>
-      <c r="BL247" s="23"/>
-      <c r="BM247" s="23"/>
-      <c r="BN247" s="23"/>
-      <c r="BO247" s="25"/>
-      <c r="BP247" s="25"/>
+    <row r="247" spans="1:101" s="9" customFormat="1" ht="38.25">
+      <c r="A247" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D247" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G247" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H247" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I247" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J247" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K247" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L247" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M247" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O247" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P247" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q247" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R247" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S247" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T247" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U247" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V247" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W247" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X247" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y247" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z247" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA247" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB247" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC247" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD247" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE247" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF247" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG247" s="6"/>
+      <c r="AH247" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI247" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ247" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK247" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL247" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM247" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN247" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO247" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP247" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ247" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR247" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS247" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT247" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU247" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV247" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW247" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX247" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY247" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ247" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA247" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB247" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC247" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD247" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE247" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF247" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG247" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH247" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI247" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ247" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK247" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL247" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM247" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN247" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO247" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP247" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ247" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR247" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS247" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT247" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU247" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BV247" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW247" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BX247" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BY247" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BZ247" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA247" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB247" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC247" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD247" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE247" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF247" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="CG247" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH247" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CI247" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ247" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK247" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL247" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM247" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN247" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="248" spans="1:92" s="26" customFormat="1">
-      <c r="A248" s="23"/>
-      <c r="B248" s="24"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="23"/>
-      <c r="E248" s="25"/>
-      <c r="F248" s="23"/>
-      <c r="G248" s="23"/>
-      <c r="H248" s="23"/>
-      <c r="I248" s="23"/>
-      <c r="J248" s="23"/>
-      <c r="K248" s="23"/>
-      <c r="L248" s="25"/>
-      <c r="M248" s="25"/>
-      <c r="N248" s="25"/>
-      <c r="O248" s="25"/>
-      <c r="P248" s="25"/>
-      <c r="Q248" s="25"/>
-      <c r="R248" s="25"/>
-      <c r="S248" s="23"/>
-      <c r="T248" s="23"/>
-      <c r="U248" s="25"/>
-      <c r="V248" s="25"/>
-      <c r="W248" s="25"/>
-      <c r="X248" s="25"/>
-      <c r="Y248" s="25"/>
-      <c r="Z248" s="25"/>
-      <c r="AA248" s="25"/>
-      <c r="AB248" s="25"/>
-      <c r="AC248" s="25"/>
-      <c r="AD248" s="25"/>
-      <c r="AE248" s="25"/>
-      <c r="AF248" s="25"/>
-      <c r="AG248" s="25"/>
-      <c r="AI248" s="23"/>
-      <c r="AJ248" s="23"/>
-      <c r="AK248" s="23"/>
-      <c r="AL248" s="23"/>
-      <c r="AM248" s="23"/>
-      <c r="AN248" s="25"/>
-      <c r="AO248" s="23"/>
-      <c r="AQ248" s="23"/>
-      <c r="AR248" s="23"/>
-      <c r="AS248" s="25"/>
-      <c r="AT248" s="23"/>
-      <c r="AU248" s="23"/>
-      <c r="AV248" s="23"/>
-      <c r="AW248" s="23"/>
-      <c r="AX248" s="23"/>
-      <c r="AY248" s="23"/>
-      <c r="AZ248" s="23"/>
-      <c r="BA248" s="25"/>
-      <c r="BB248" s="25"/>
-      <c r="BC248" s="25"/>
-      <c r="BD248" s="23"/>
-      <c r="BE248" s="23"/>
-      <c r="BF248" s="23"/>
-      <c r="BG248" s="23"/>
-      <c r="BH248" s="23"/>
-      <c r="BI248" s="23"/>
-      <c r="BJ248" s="23"/>
-      <c r="BK248" s="23"/>
-      <c r="BL248" s="23"/>
-      <c r="BM248" s="23"/>
-      <c r="BN248" s="23"/>
-      <c r="BO248" s="25"/>
-      <c r="BP248" s="25"/>
+    <row r="248" spans="1:101" s="5" customFormat="1" ht="75">
+      <c r="A248" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E248" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L248" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="M248" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N248" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="O248" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="P248" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q248" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R248" s="12"/>
+      <c r="S248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T248" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="U248" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="V248" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="W248" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="X248" s="12"/>
+      <c r="Y248" s="12"/>
+      <c r="Z248" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA248" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB248" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC248" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD248" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE248" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF248" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG248" s="12"/>
+      <c r="AI248" s="4"/>
+      <c r="AJ248" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK248" s="4"/>
+      <c r="AL248" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM248" s="4"/>
+      <c r="AN248" s="12"/>
+      <c r="AO248" s="4"/>
+      <c r="AQ248" s="4"/>
+      <c r="AR248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS248" s="12"/>
+      <c r="AT248" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU248" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV248" s="4"/>
+      <c r="AW248" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX248" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY248" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ248" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA248" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB248" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC248" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD248" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE248" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF248" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG248" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH248" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI248" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ248" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK248" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL248" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM248" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN248" s="4"/>
+      <c r="BO248" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP248" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="249" spans="1:92" s="26" customFormat="1">
-      <c r="A249" s="23"/>
-      <c r="B249" s="24"/>
-      <c r="C249" s="23"/>
-      <c r="D249" s="23"/>
-      <c r="E249" s="25"/>
-      <c r="F249" s="23"/>
-      <c r="G249" s="23"/>
-      <c r="H249" s="23"/>
-      <c r="I249" s="23"/>
-      <c r="J249" s="23"/>
-      <c r="K249" s="23"/>
-      <c r="L249" s="25"/>
-      <c r="M249" s="25"/>
-      <c r="N249" s="25"/>
-      <c r="O249" s="25"/>
-      <c r="P249" s="25"/>
-      <c r="Q249" s="25"/>
-      <c r="R249" s="25"/>
-      <c r="S249" s="23"/>
-      <c r="T249" s="23"/>
-      <c r="U249" s="25"/>
-      <c r="V249" s="25"/>
-      <c r="W249" s="25"/>
-      <c r="X249" s="25"/>
-      <c r="Y249" s="25"/>
-      <c r="Z249" s="25"/>
-      <c r="AA249" s="25"/>
-      <c r="AB249" s="25"/>
-      <c r="AC249" s="25"/>
-      <c r="AD249" s="25"/>
-      <c r="AE249" s="25"/>
-      <c r="AF249" s="25"/>
-      <c r="AG249" s="25"/>
-      <c r="AI249" s="23"/>
-      <c r="AJ249" s="23"/>
-      <c r="AK249" s="23"/>
-      <c r="AL249" s="23"/>
-      <c r="AM249" s="23"/>
-      <c r="AN249" s="25"/>
-      <c r="AO249" s="23"/>
-      <c r="AQ249" s="23"/>
-      <c r="AR249" s="23"/>
-      <c r="AS249" s="25"/>
-      <c r="AT249" s="23"/>
-      <c r="AU249" s="23"/>
-      <c r="AV249" s="23"/>
-      <c r="AW249" s="23"/>
-      <c r="AX249" s="23"/>
-      <c r="AY249" s="23"/>
-      <c r="AZ249" s="23"/>
-      <c r="BA249" s="25"/>
-      <c r="BB249" s="25"/>
-      <c r="BC249" s="25"/>
-      <c r="BD249" s="23"/>
-      <c r="BE249" s="23"/>
-      <c r="BF249" s="23"/>
-      <c r="BG249" s="23"/>
-      <c r="BH249" s="23"/>
-      <c r="BI249" s="23"/>
-      <c r="BJ249" s="23"/>
-      <c r="BK249" s="23"/>
-      <c r="BL249" s="23"/>
-      <c r="BM249" s="23"/>
-      <c r="BN249" s="23"/>
-      <c r="BO249" s="25"/>
-      <c r="BP249" s="25"/>
+    <row r="249" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A249" s="10"/>
+      <c r="B249" s="18"/>
+      <c r="E249" s="31"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="K249" s="30"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+      <c r="N249" s="10"/>
+      <c r="O249" s="10"/>
+      <c r="P249" s="10"/>
+      <c r="Q249" s="31"/>
+      <c r="R249" s="31"/>
+      <c r="U249" s="10"/>
+      <c r="V249" s="10"/>
+      <c r="W249" s="10"/>
+      <c r="X249" s="10"/>
+      <c r="Y249" s="10"/>
+      <c r="Z249" s="10"/>
+      <c r="AA249" s="10"/>
+      <c r="AB249" s="10"/>
+      <c r="AC249" s="10"/>
+      <c r="AD249" s="10"/>
+      <c r="AE249" s="10"/>
+      <c r="AF249" s="10"/>
+      <c r="AG249" s="10"/>
+      <c r="AI249" s="10"/>
+      <c r="AJ249" s="10"/>
+      <c r="AK249" s="10"/>
+      <c r="AL249" s="10"/>
+      <c r="AM249" s="10"/>
+      <c r="AN249" s="10"/>
+      <c r="AO249" s="10"/>
+      <c r="AQ249" s="10"/>
+      <c r="AS249" s="10"/>
+      <c r="AT249" s="10"/>
+      <c r="AU249" s="10"/>
+      <c r="AV249" s="10"/>
+      <c r="AW249" s="10"/>
+      <c r="BG249" s="10"/>
+      <c r="BI249" s="10"/>
+      <c r="BJ249" s="10"/>
+      <c r="BK249" s="10"/>
+      <c r="BL249" s="10"/>
+      <c r="BM249" s="10"/>
+      <c r="BN249" s="10"/>
+      <c r="BO249" s="10"/>
+      <c r="BP249" s="10"/>
     </row>
-    <row r="250" spans="1:92" s="26" customFormat="1">
-      <c r="A250" s="23"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="23"/>
-      <c r="D250" s="23"/>
-      <c r="E250" s="25"/>
-      <c r="F250" s="23"/>
-      <c r="G250" s="23"/>
-      <c r="H250" s="23"/>
-      <c r="I250" s="23"/>
-      <c r="J250" s="23"/>
-      <c r="K250" s="23"/>
-      <c r="L250" s="25"/>
-      <c r="M250" s="25"/>
-      <c r="N250" s="25"/>
-      <c r="O250" s="25"/>
-      <c r="P250" s="25"/>
-      <c r="Q250" s="25"/>
-      <c r="R250" s="25"/>
-      <c r="S250" s="23"/>
-      <c r="T250" s="23"/>
-      <c r="U250" s="25"/>
-      <c r="V250" s="25"/>
-      <c r="W250" s="25"/>
-      <c r="X250" s="25"/>
-      <c r="Y250" s="25"/>
-      <c r="Z250" s="25"/>
-      <c r="AA250" s="25"/>
-      <c r="AB250" s="25"/>
-      <c r="AC250" s="25"/>
-      <c r="AD250" s="25"/>
-      <c r="AE250" s="25"/>
-      <c r="AF250" s="25"/>
-      <c r="AG250" s="25"/>
-      <c r="AI250" s="23"/>
-      <c r="AJ250" s="23"/>
-      <c r="AK250" s="23"/>
-      <c r="AL250" s="23"/>
-      <c r="AM250" s="23"/>
-      <c r="AN250" s="25"/>
-      <c r="AO250" s="23"/>
-      <c r="AQ250" s="23"/>
-      <c r="AR250" s="23"/>
-      <c r="AS250" s="25"/>
-      <c r="AT250" s="23"/>
-      <c r="AU250" s="23"/>
-      <c r="AV250" s="23"/>
-      <c r="AW250" s="23"/>
-      <c r="AX250" s="23"/>
-      <c r="AY250" s="23"/>
-      <c r="AZ250" s="23"/>
-      <c r="BA250" s="25"/>
-      <c r="BB250" s="25"/>
-      <c r="BC250" s="25"/>
-      <c r="BD250" s="23"/>
-      <c r="BE250" s="23"/>
-      <c r="BF250" s="23"/>
-      <c r="BG250" s="23"/>
-      <c r="BH250" s="23"/>
-      <c r="BI250" s="23"/>
-      <c r="BJ250" s="23"/>
-      <c r="BK250" s="23"/>
-      <c r="BL250" s="23"/>
-      <c r="BM250" s="23"/>
-      <c r="BN250" s="23"/>
-      <c r="BO250" s="25"/>
-      <c r="BP250" s="25"/>
+    <row r="250" spans="1:101" s="8" customFormat="1" ht="409.6">
+      <c r="A250" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B250" s="7"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="K250" s="20"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="7"/>
+      <c r="N250" s="7"/>
+      <c r="O250" s="7"/>
+      <c r="P250" s="7"/>
+      <c r="Q250" s="28"/>
+      <c r="R250" s="28"/>
+      <c r="U250" s="7"/>
+      <c r="V250" s="7"/>
+      <c r="W250" s="7"/>
+      <c r="X250" s="7"/>
+      <c r="Y250" s="7"/>
+      <c r="Z250" s="7"/>
+      <c r="AA250" s="7"/>
+      <c r="AB250" s="7"/>
+      <c r="AC250" s="7"/>
+      <c r="AD250" s="7"/>
+      <c r="AE250" s="7"/>
+      <c r="AF250" s="7"/>
+      <c r="AG250" s="7"/>
+      <c r="AI250" s="7"/>
+      <c r="AJ250" s="7"/>
+      <c r="AK250" s="7"/>
+      <c r="AL250" s="7"/>
+      <c r="AM250" s="7"/>
+      <c r="AN250" s="7"/>
+      <c r="AO250" s="7"/>
+      <c r="AQ250" s="7"/>
+      <c r="AS250" s="7"/>
+      <c r="AT250" s="7"/>
+      <c r="AU250" s="7"/>
+      <c r="AV250" s="7"/>
+      <c r="AW250" s="7"/>
+      <c r="BG250" s="7"/>
+      <c r="BI250" s="7"/>
+      <c r="BJ250" s="7"/>
+      <c r="BK250" s="7"/>
+      <c r="BL250" s="7"/>
+      <c r="BM250" s="7"/>
+      <c r="BN250" s="7"/>
+      <c r="BO250" s="7"/>
+      <c r="BP250" s="7"/>
+    </row>
+    <row r="251" spans="1:101" s="9" customFormat="1" ht="38.25">
+      <c r="A251" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D251" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G251" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H251" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I251" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J251" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K251" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L251" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M251" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O251" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="P251" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q251" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R251" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S251" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T251" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U251" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="V251" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="W251" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X251" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y251" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z251" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA251" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB251" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC251" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD251" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE251" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF251" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG251" s="6"/>
+      <c r="AH251" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI251" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ251" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK251" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL251" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM251" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN251" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO251" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP251" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ251" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR251" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS251" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT251" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU251" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV251" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW251" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX251" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY251" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ251" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA251" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB251" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC251" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD251" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE251" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF251" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG251" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH251" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI251" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ251" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK251" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL251" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM251" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN251" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO251" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP251" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ251" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR251" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS251" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BT251" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="BU251" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BV251" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW251" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BX251" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BY251" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BZ251" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CA251" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="CB251" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC251" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="CD251" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE251" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF251" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="CG251" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CH251" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="CI251" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ251" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK251" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL251" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM251" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CN251" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="252" spans="1:101" s="5" customFormat="1" ht="38.25">
+      <c r="A252" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C252" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L252" s="12"/>
+      <c r="M252" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N252" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O252" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="P252" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q252" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R252" s="12"/>
+      <c r="S252" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T252" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="U252" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="V252" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="W252" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="X252" s="12"/>
+      <c r="Y252" s="12"/>
+      <c r="Z252" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA252" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB252" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC252" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD252" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE252" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF252" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG252" s="12"/>
+      <c r="AI252" s="4"/>
+      <c r="AJ252" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK252" s="4"/>
+      <c r="AL252" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM252" s="4"/>
+      <c r="AN252" s="12"/>
+      <c r="AO252" s="4"/>
+      <c r="AQ252" s="4"/>
+      <c r="AR252" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS252" s="12"/>
+      <c r="AT252" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU252" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV252" s="4"/>
+      <c r="AW252" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX252" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY252" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ252" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA252" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB252" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC252" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD252" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE252" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF252" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG252" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH252" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI252" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ252" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK252" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BL252" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM252" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN252" s="4"/>
+      <c r="BO252" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP252" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A253" s="10"/>
+      <c r="B253" s="18"/>
+      <c r="E253" s="31"/>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10"/>
+      <c r="K253" s="30"/>
+      <c r="L253" s="10"/>
+      <c r="M253" s="10"/>
+      <c r="N253" s="10"/>
+      <c r="O253" s="10"/>
+      <c r="P253" s="10"/>
+      <c r="Q253" s="31"/>
+      <c r="R253" s="31"/>
+      <c r="U253" s="10"/>
+      <c r="V253" s="10"/>
+      <c r="W253" s="10"/>
+      <c r="X253" s="10"/>
+      <c r="Y253" s="10"/>
+      <c r="Z253" s="10"/>
+      <c r="AA253" s="10"/>
+      <c r="AB253" s="10"/>
+      <c r="AC253" s="10"/>
+      <c r="AD253" s="10"/>
+      <c r="AE253" s="10"/>
+      <c r="AF253" s="10"/>
+      <c r="AG253" s="10"/>
+      <c r="AI253" s="10"/>
+      <c r="AJ253" s="10"/>
+      <c r="AK253" s="10"/>
+      <c r="AL253" s="10"/>
+      <c r="AM253" s="10"/>
+      <c r="AN253" s="10"/>
+      <c r="AO253" s="10"/>
+      <c r="AQ253" s="10"/>
+      <c r="AS253" s="10"/>
+      <c r="AT253" s="10"/>
+      <c r="AU253" s="10"/>
+      <c r="AV253" s="10"/>
+      <c r="AW253" s="10"/>
+      <c r="BG253" s="10"/>
+      <c r="BI253" s="10"/>
+      <c r="BJ253" s="10"/>
+      <c r="BK253" s="10"/>
+      <c r="BL253" s="10"/>
+      <c r="BM253" s="10"/>
+      <c r="BN253" s="10"/>
+      <c r="BO253" s="10"/>
+      <c r="BP253" s="10"/>
+    </row>
+    <row r="254" spans="1:101" s="11" customFormat="1" ht="409.6">
+      <c r="A254" s="10"/>
+      <c r="B254" s="18"/>
+      <c r="E254" s="31"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+      <c r="K254" s="30"/>
+      <c r="L254" s="10"/>
+      <c r="M254" s="10"/>
+      <c r="N254" s="10"/>
+      <c r="O254" s="10"/>
+      <c r="P254" s="10"/>
+      <c r="Q254" s="31"/>
+      <c r="R254" s="31"/>
+      <c r="U254" s="10"/>
+      <c r="V254" s="10"/>
+      <c r="W254" s="10"/>
+      <c r="X254" s="10"/>
+      <c r="Y254" s="10"/>
+      <c r="Z254" s="10"/>
+      <c r="AA254" s="10"/>
+      <c r="AB254" s="10"/>
+      <c r="AC254" s="10"/>
+      <c r="AD254" s="10"/>
+      <c r="AE254" s="10"/>
+      <c r="AF254" s="10"/>
+      <c r="AG254" s="10"/>
+      <c r="AI254" s="10"/>
+      <c r="AJ254" s="10"/>
+      <c r="AK254" s="10"/>
+      <c r="AL254" s="10"/>
+      <c r="AM254" s="10"/>
+      <c r="AN254" s="10"/>
+      <c r="AO254" s="10"/>
+      <c r="AQ254" s="10"/>
+      <c r="AS254" s="10"/>
+      <c r="AT254" s="10"/>
+      <c r="AU254" s="10"/>
+      <c r="AV254" s="10"/>
+      <c r="AW254" s="10"/>
+      <c r="BG254" s="10"/>
+      <c r="BI254" s="10"/>
+      <c r="BJ254" s="10"/>
+      <c r="BK254" s="10"/>
+      <c r="BL254" s="10"/>
+      <c r="BM254" s="10"/>
+      <c r="BN254" s="10"/>
+      <c r="BO254" s="10"/>
+      <c r="BP254" s="10"/>
+    </row>
+    <row r="255" spans="1:101" s="26" customFormat="1" ht="409.6">
+      <c r="A255" s="23"/>
+      <c r="B255" s="24"/>
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="25"/>
+      <c r="F255" s="23"/>
+      <c r="G255" s="23"/>
+      <c r="H255" s="23"/>
+      <c r="I255" s="23"/>
+      <c r="J255" s="23"/>
+      <c r="K255" s="23"/>
+      <c r="L255" s="25"/>
+      <c r="M255" s="25"/>
+      <c r="N255" s="25"/>
+      <c r="O255" s="25"/>
+      <c r="P255" s="25"/>
+      <c r="Q255" s="25"/>
+      <c r="R255" s="25"/>
+      <c r="S255" s="23"/>
+      <c r="T255" s="23"/>
+      <c r="U255" s="25"/>
+      <c r="V255" s="25"/>
+      <c r="W255" s="25"/>
+      <c r="X255" s="25"/>
+      <c r="Y255" s="25"/>
+      <c r="Z255" s="25"/>
+      <c r="AA255" s="25"/>
+      <c r="AB255" s="25"/>
+      <c r="AC255" s="25"/>
+      <c r="AD255" s="25"/>
+      <c r="AE255" s="25"/>
+      <c r="AF255" s="25"/>
+      <c r="AG255" s="25"/>
+      <c r="AI255" s="23"/>
+      <c r="AJ255" s="23"/>
+      <c r="AK255" s="23"/>
+      <c r="AL255" s="23"/>
+      <c r="AM255" s="23"/>
+      <c r="AN255" s="25"/>
+      <c r="AO255" s="23"/>
+      <c r="AQ255" s="23"/>
+      <c r="AR255" s="23"/>
+      <c r="AS255" s="25"/>
+      <c r="AT255" s="23"/>
+      <c r="AU255" s="23"/>
+      <c r="AV255" s="23"/>
+      <c r="AW255" s="23"/>
+      <c r="AX255" s="23"/>
+      <c r="AY255" s="23"/>
+      <c r="AZ255" s="23"/>
+      <c r="BA255" s="25"/>
+      <c r="BB255" s="25"/>
+      <c r="BC255" s="25"/>
+      <c r="BD255" s="23"/>
+      <c r="BE255" s="23"/>
+      <c r="BF255" s="23"/>
+      <c r="BG255" s="23"/>
+      <c r="BH255" s="23"/>
+      <c r="BI255" s="23"/>
+      <c r="BJ255" s="23"/>
+      <c r="BK255" s="23"/>
+      <c r="BL255" s="23"/>
+      <c r="BM255" s="23"/>
+      <c r="BN255" s="23"/>
+      <c r="BO255" s="25"/>
+      <c r="BP255" s="25"/>
+    </row>
+    <row r="256" spans="1:101" s="26" customFormat="1" ht="409.6">
+      <c r="A256" s="23"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="23"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="25"/>
+      <c r="F256" s="23"/>
+      <c r="G256" s="23"/>
+      <c r="H256" s="23"/>
+      <c r="I256" s="23"/>
+      <c r="J256" s="23"/>
+      <c r="K256" s="23"/>
+      <c r="L256" s="25"/>
+      <c r="M256" s="25"/>
+      <c r="N256" s="25"/>
+      <c r="O256" s="25"/>
+      <c r="P256" s="25"/>
+      <c r="Q256" s="25"/>
+      <c r="R256" s="25"/>
+      <c r="S256" s="23"/>
+      <c r="T256" s="23"/>
+      <c r="U256" s="25"/>
+      <c r="V256" s="25"/>
+      <c r="W256" s="25"/>
+      <c r="X256" s="25"/>
+      <c r="Y256" s="25"/>
+      <c r="Z256" s="25"/>
+      <c r="AA256" s="25"/>
+      <c r="AB256" s="25"/>
+      <c r="AC256" s="25"/>
+      <c r="AD256" s="25"/>
+      <c r="AE256" s="25"/>
+      <c r="AF256" s="25"/>
+      <c r="AG256" s="25"/>
+      <c r="AI256" s="23"/>
+      <c r="AJ256" s="23"/>
+      <c r="AK256" s="23"/>
+      <c r="AL256" s="23"/>
+      <c r="AM256" s="23"/>
+      <c r="AN256" s="25"/>
+      <c r="AO256" s="23"/>
+      <c r="AQ256" s="23"/>
+      <c r="AR256" s="23"/>
+      <c r="AS256" s="25"/>
+      <c r="AT256" s="23"/>
+      <c r="AU256" s="23"/>
+      <c r="AV256" s="23"/>
+      <c r="AW256" s="23"/>
+      <c r="AX256" s="23"/>
+      <c r="AY256" s="23"/>
+      <c r="AZ256" s="23"/>
+      <c r="BA256" s="25"/>
+      <c r="BB256" s="25"/>
+      <c r="BC256" s="25"/>
+      <c r="BD256" s="23"/>
+      <c r="BE256" s="23"/>
+      <c r="BF256" s="23"/>
+      <c r="BG256" s="23"/>
+      <c r="BH256" s="23"/>
+      <c r="BI256" s="23"/>
+      <c r="BJ256" s="23"/>
+      <c r="BK256" s="23"/>
+      <c r="BL256" s="23"/>
+      <c r="BM256" s="23"/>
+      <c r="BN256" s="23"/>
+      <c r="BO256" s="25"/>
+      <c r="BP256" s="25"/>
+    </row>
+    <row r="257" spans="1:101" s="26" customFormat="1" ht="409.6">
+      <c r="A257" s="23"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="23"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="25"/>
+      <c r="F257" s="23"/>
+      <c r="G257" s="23"/>
+      <c r="H257" s="23"/>
+      <c r="I257" s="23"/>
+      <c r="J257" s="23"/>
+      <c r="K257" s="23"/>
+      <c r="L257" s="25"/>
+      <c r="M257" s="25"/>
+      <c r="N257" s="25"/>
+      <c r="O257" s="25"/>
+      <c r="P257" s="25"/>
+      <c r="Q257" s="25"/>
+      <c r="R257" s="25"/>
+      <c r="S257" s="23"/>
+      <c r="T257" s="23"/>
+      <c r="U257" s="25"/>
+      <c r="V257" s="25"/>
+      <c r="W257" s="25"/>
+      <c r="X257" s="25"/>
+      <c r="Y257" s="25"/>
+      <c r="Z257" s="25"/>
+      <c r="AA257" s="25"/>
+      <c r="AB257" s="25"/>
+      <c r="AC257" s="25"/>
+      <c r="AD257" s="25"/>
+      <c r="AE257" s="25"/>
+      <c r="AF257" s="25"/>
+      <c r="AG257" s="25"/>
+      <c r="AI257" s="23"/>
+      <c r="AJ257" s="23"/>
+      <c r="AK257" s="23"/>
+      <c r="AL257" s="23"/>
+      <c r="AM257" s="23"/>
+      <c r="AN257" s="25"/>
+      <c r="AO257" s="23"/>
+      <c r="AQ257" s="23"/>
+      <c r="AR257" s="23"/>
+      <c r="AS257" s="25"/>
+      <c r="AT257" s="23"/>
+      <c r="AU257" s="23"/>
+      <c r="AV257" s="23"/>
+      <c r="AW257" s="23"/>
+      <c r="AX257" s="23"/>
+      <c r="AY257" s="23"/>
+      <c r="AZ257" s="23"/>
+      <c r="BA257" s="25"/>
+      <c r="BB257" s="25"/>
+      <c r="BC257" s="25"/>
+      <c r="BD257" s="23"/>
+      <c r="BE257" s="23"/>
+      <c r="BF257" s="23"/>
+      <c r="BG257" s="23"/>
+      <c r="BH257" s="23"/>
+      <c r="BI257" s="23"/>
+      <c r="BJ257" s="23"/>
+      <c r="BK257" s="23"/>
+      <c r="BL257" s="23"/>
+      <c r="BM257" s="23"/>
+      <c r="BN257" s="23"/>
+      <c r="BO257" s="25"/>
+      <c r="BP257" s="25"/>
+    </row>
+    <row r="258" spans="1:101" s="26" customFormat="1" ht="409.6">
+      <c r="A258" s="23"/>
+      <c r="B258" s="24"/>
+      <c r="C258" s="23"/>
+      <c r="D258" s="23"/>
+      <c r="E258" s="25"/>
+      <c r="F258" s="23"/>
+      <c r="G258" s="23"/>
+      <c r="H258" s="23"/>
+      <c r="I258" s="23"/>
+      <c r="J258" s="23"/>
+      <c r="K258" s="23"/>
+      <c r="L258" s="25"/>
+      <c r="M258" s="25"/>
+      <c r="N258" s="25"/>
+      <c r="O258" s="25"/>
+      <c r="P258" s="25"/>
+      <c r="Q258" s="25"/>
+      <c r="R258" s="25"/>
+      <c r="S258" s="23"/>
+      <c r="T258" s="23"/>
+      <c r="U258" s="25"/>
+      <c r="V258" s="25"/>
+      <c r="W258" s="25"/>
+      <c r="X258" s="25"/>
+      <c r="Y258" s="25"/>
+      <c r="Z258" s="25"/>
+      <c r="AA258" s="25"/>
+      <c r="AB258" s="25"/>
+      <c r="AC258" s="25"/>
+      <c r="AD258" s="25"/>
+      <c r="AE258" s="25"/>
+      <c r="AF258" s="25"/>
+      <c r="AG258" s="25"/>
+      <c r="AI258" s="23"/>
+      <c r="AJ258" s="23"/>
+      <c r="AK258" s="23"/>
+      <c r="AL258" s="23"/>
+      <c r="AM258" s="23"/>
+      <c r="AN258" s="25"/>
+      <c r="AO258" s="23"/>
+      <c r="AQ258" s="23"/>
+      <c r="AR258" s="23"/>
+      <c r="AS258" s="25"/>
+      <c r="AT258" s="23"/>
+      <c r="AU258" s="23"/>
+      <c r="AV258" s="23"/>
+      <c r="AW258" s="23"/>
+      <c r="AX258" s="23"/>
+      <c r="AY258" s="23"/>
+      <c r="AZ258" s="23"/>
+      <c r="BA258" s="25"/>
+      <c r="BB258" s="25"/>
+      <c r="BC258" s="25"/>
+      <c r="BD258" s="23"/>
+      <c r="BE258" s="23"/>
+      <c r="BF258" s="23"/>
+      <c r="BG258" s="23"/>
+      <c r="BH258" s="23"/>
+      <c r="BI258" s="23"/>
+      <c r="BJ258" s="23"/>
+      <c r="BK258" s="23"/>
+      <c r="BL258" s="23"/>
+      <c r="BM258" s="23"/>
+      <c r="BN258" s="23"/>
+      <c r="BO258" s="25"/>
+      <c r="BP258" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E192" r:id="rId1"/>
-    <hyperlink ref="D192" r:id="rId2" display="AJOETEST@GMAIL.COM :: Professional Engineer :: JA&amp; LLC"/>
-    <hyperlink ref="AA192" r:id="rId3"/>
-    <hyperlink ref="AB192" r:id="rId4"/>
+    <hyperlink ref="E200" r:id="rId1"/>
+    <hyperlink ref="D200" r:id="rId2" display="AJOETEST@GMAIL.COM :: Professional Engineer :: JA&amp; LLC"/>
+    <hyperlink ref="AA200" r:id="rId3"/>
+    <hyperlink ref="AB200" r:id="rId4"/>
     <hyperlink ref="D50" r:id="rId5" display="AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2V"/>
-    <hyperlink ref="AA176" r:id="rId6"/>
-    <hyperlink ref="AB176" r:id="rId7"/>
-    <hyperlink ref="AA208" r:id="rId8"/>
-    <hyperlink ref="AB208" r:id="rId9"/>
-    <hyperlink ref="AA240" r:id="rId10"/>
-    <hyperlink ref="AB240" r:id="rId11"/>
-    <hyperlink ref="AA144" r:id="rId12"/>
-    <hyperlink ref="AB144" r:id="rId13"/>
-    <hyperlink ref="E144" r:id="rId14"/>
-    <hyperlink ref="E176" r:id="rId15"/>
-    <hyperlink ref="E208" r:id="rId16"/>
-    <hyperlink ref="E240" r:id="rId17"/>
+    <hyperlink ref="AA184" r:id="rId6"/>
+    <hyperlink ref="AB184" r:id="rId7"/>
+    <hyperlink ref="AA216" r:id="rId8"/>
+    <hyperlink ref="AB216" r:id="rId9"/>
+    <hyperlink ref="AA248" r:id="rId10"/>
+    <hyperlink ref="AB248" r:id="rId11"/>
+    <hyperlink ref="AA148" r:id="rId12"/>
+    <hyperlink ref="AB148" r:id="rId13"/>
+    <hyperlink ref="E148" r:id="rId14"/>
+    <hyperlink ref="E184" r:id="rId15"/>
+    <hyperlink ref="E216" r:id="rId16"/>
+    <hyperlink ref="E248" r:id="rId17"/>
+    <hyperlink ref="AA164" r:id="rId18"/>
+    <hyperlink ref="AB164" r:id="rId19"/>
+    <hyperlink ref="E164" r:id="rId20"/>
+    <hyperlink ref="AA144" r:id="rId21"/>
+    <hyperlink ref="AB144" r:id="rId22"/>
+    <hyperlink ref="E144" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>